--- a/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.407236980071161</v>
+        <v>1.884137033849157</v>
       </c>
       <c r="C2">
-        <v>1.036422438664857</v>
+        <v>0.2612134550310401</v>
       </c>
       <c r="D2">
-        <v>0.01542372030083516</v>
+        <v>0.4054248112437477</v>
       </c>
       <c r="E2">
-        <v>0.4445997369659835</v>
+        <v>0.03926462470867698</v>
       </c>
       <c r="F2">
-        <v>2.641473874701148</v>
+        <v>6.747200865476913</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.288303381119718</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3177649796070199</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7957071599044525</v>
+        <v>0.4264217544676114</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1474370104511777</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3366119854745335</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.072235394169638</v>
+        <v>1.636207737085556</v>
       </c>
       <c r="C3">
-        <v>0.8897306795872453</v>
+        <v>0.22623205139395</v>
       </c>
       <c r="D3">
-        <v>0.0158343857043155</v>
+        <v>0.3690077441941497</v>
       </c>
       <c r="E3">
-        <v>0.3809754545675332</v>
+        <v>0.03800892461162153</v>
       </c>
       <c r="F3">
-        <v>2.343730344101871</v>
+        <v>6.009701206300292</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.167935829583641</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2726523040208875</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6843845245881397</v>
+        <v>0.3661649027288973</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.133722227818879</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2950947411423854</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.869865973632983</v>
+        <v>1.488631946308971</v>
       </c>
       <c r="C4">
-        <v>0.8014698571176666</v>
+        <v>0.2052588037949334</v>
       </c>
       <c r="D4">
-        <v>0.0160769574942643</v>
+        <v>0.3470715864670666</v>
       </c>
       <c r="E4">
-        <v>0.342848808970416</v>
+        <v>0.03725498229970103</v>
       </c>
       <c r="F4">
-        <v>2.167284387986797</v>
+        <v>5.566590483182182</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.097189209218769</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2457068645348812</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6172202521587096</v>
+        <v>0.3302444806938567</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1255710734561646</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2703946115994498</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.788100243061194</v>
+        <v>1.429523102034949</v>
       </c>
       <c r="C5">
-        <v>0.7658857524117764</v>
+        <v>0.1968154224902463</v>
       </c>
       <c r="D5">
-        <v>0.01617355991874447</v>
+        <v>0.3382206611601504</v>
       </c>
       <c r="E5">
-        <v>0.3275117741921676</v>
+        <v>0.03695111965697429</v>
       </c>
       <c r="F5">
-        <v>2.096790007070041</v>
+        <v>5.388111337152111</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.069064054280688</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2348880359726948</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5901014009183498</v>
+        <v>0.3158420810020743</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1223104397437496</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2605053840369749</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.77456180550908</v>
+        <v>1.419766455557919</v>
       </c>
       <c r="C6">
-        <v>0.7599982027764156</v>
+        <v>0.1954190043982749</v>
       </c>
       <c r="D6">
-        <v>0.01618946950549116</v>
+        <v>0.336755796357707</v>
       </c>
       <c r="E6">
-        <v>0.3249761563514966</v>
+        <v>0.03690084246015513</v>
       </c>
       <c r="F6">
-        <v>2.08516426985895</v>
+        <v>5.358591734396157</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.064433991581566</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2331005800816328</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5856122017546852</v>
+        <v>0.3134638259811169</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1217725131425667</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2588733087162396</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.868760579712387</v>
+        <v>1.487830791092279</v>
       </c>
       <c r="C7">
-        <v>0.8009884967437415</v>
+        <v>0.2051445442898512</v>
       </c>
       <c r="D7">
-        <v>0.01607826920100219</v>
+        <v>0.3469518855646641</v>
       </c>
       <c r="E7">
-        <v>0.342641204152244</v>
+        <v>0.03725087177402386</v>
       </c>
       <c r="F7">
-        <v>2.166328213351605</v>
+        <v>5.564175420057154</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.09680716277947</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2455603382734637</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6168535605094263</v>
+        <v>0.3300493357748593</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1255268608367714</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2702605567467806</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.290953541045781</v>
+        <v>1.797595684559553</v>
       </c>
       <c r="C8">
-        <v>0.9854220604415502</v>
+        <v>0.2490318354347778</v>
       </c>
       <c r="D8">
-        <v>0.01556740507435972</v>
+        <v>0.3927685336720401</v>
       </c>
       <c r="E8">
-        <v>0.4224441538480264</v>
+        <v>0.03882753362356262</v>
       </c>
       <c r="F8">
-        <v>2.537367481532357</v>
+        <v>6.490671471993608</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.2460879484413</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3020358754909935</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7570461932762527</v>
+        <v>0.4053989845286878</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1426478458993188</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3221180692923085</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.152132909129591</v>
+        <v>2.449200869820515</v>
       </c>
       <c r="C9">
-        <v>1.365146516845641</v>
+        <v>0.3403336616757997</v>
       </c>
       <c r="D9">
-        <v>0.01448189203260863</v>
+        <v>0.4869183695362125</v>
       </c>
       <c r="E9">
-        <v>0.5882577873699475</v>
+        <v>0.04210230702943996</v>
       </c>
       <c r="F9">
-        <v>3.325383560662203</v>
+        <v>8.402579872000786</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.568483392446467</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4202079492653183</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.043843515874627</v>
+        <v>0.563535676574908</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1787101692799808</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4312604936289048</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.816271099393418</v>
+        <v>2.966557784181248</v>
       </c>
       <c r="C10">
-        <v>1.661141262813203</v>
+        <v>0.4126152705055688</v>
       </c>
       <c r="D10">
-        <v>0.0136218032910973</v>
+        <v>0.5602216983196229</v>
       </c>
       <c r="E10">
-        <v>0.71881154778481</v>
+        <v>0.04469792940962325</v>
       </c>
       <c r="F10">
-        <v>3.957068269364498</v>
+        <v>9.894069878976325</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.830807736361095</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5139042691368587</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.265765880418115</v>
+        <v>0.6890071745818318</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.207279699308117</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5178768606030957</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.128247444584701</v>
+        <v>3.213477994578682</v>
       </c>
       <c r="C11">
-        <v>1.801126370493932</v>
+        <v>0.4471808666767743</v>
       </c>
       <c r="D11">
-        <v>0.0132141275204738</v>
+        <v>0.5948716430131071</v>
       </c>
       <c r="E11">
-        <v>0.7809355334677406</v>
+        <v>0.04594159667040287</v>
       </c>
       <c r="F11">
-        <v>4.26018430777836</v>
+        <v>10.59919688524468</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.957666361465442</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5586665875500358</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.37023523164784</v>
+        <v>0.7489107826947361</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2208765627733555</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.5591874789819897</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.248105961533497</v>
+        <v>3.308965017199114</v>
       </c>
       <c r="C12">
-        <v>1.855068130412292</v>
+        <v>0.460568859218597</v>
       </c>
       <c r="D12">
-        <v>0.01305713086944582</v>
+        <v>0.6082208157065736</v>
       </c>
       <c r="E12">
-        <v>0.8049388169943228</v>
+        <v>0.04642382302182302</v>
       </c>
       <c r="F12">
-        <v>4.37766592640142</v>
+        <v>10.87081874706837</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.006987433458093</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5759903980959962</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.410409237418079</v>
+        <v>0.7720828364016796</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2261265971321649</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5751565893646884</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.222210406813076</v>
+        <v>3.288306253457961</v>
       </c>
       <c r="C13">
-        <v>1.843406385425567</v>
+        <v>0.4576712132270302</v>
       </c>
       <c r="D13">
-        <v>0.01309106377484781</v>
+        <v>0.6053349731625701</v>
       </c>
       <c r="E13">
-        <v>0.7997464833778167</v>
+        <v>0.04631942522673071</v>
       </c>
       <c r="F13">
-        <v>4.352236462161613</v>
+        <v>10.81210152445516</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.996304654707998</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5722416257879885</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.401727821938593</v>
+        <v>0.7670691673624503</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.224991144207209</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.5717019587099301</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.138071887199828</v>
+        <v>3.22129198075794</v>
       </c>
       <c r="C14">
-        <v>1.805544451837022</v>
+        <v>0.4482759556408382</v>
       </c>
       <c r="D14">
-        <v>0.01320126536851696</v>
+        <v>0.5959650616077568</v>
       </c>
       <c r="E14">
-        <v>0.7829001689211736</v>
+        <v>0.04598102940272852</v>
       </c>
       <c r="F14">
-        <v>4.269792772250156</v>
+        <v>10.62144616841988</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.961697061708847</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5600839268658788</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.373527383458907</v>
+        <v>0.7508068653028701</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2213063641767832</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.5604944148525277</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.086768463118517</v>
+        <v>3.18051258306599</v>
       </c>
       <c r="C15">
-        <v>1.782479761326499</v>
+        <v>0.4425618535491935</v>
       </c>
       <c r="D15">
-        <v>0.01326841787945376</v>
+        <v>0.5902567302371722</v>
       </c>
       <c r="E15">
-        <v>0.7726463934830292</v>
+        <v>0.04577529425826832</v>
       </c>
       <c r="F15">
-        <v>4.219659111552744</v>
+        <v>10.50528926741367</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.940672460727896</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5526877543622248</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.356337260363077</v>
+        <v>0.7409119347179356</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2190629917967328</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.5536735555833445</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.796105747939748</v>
+        <v>2.950679914050795</v>
       </c>
       <c r="C16">
-        <v>1.652113742042445</v>
+        <v>0.410394821774986</v>
       </c>
       <c r="D16">
-        <v>0.01364809405979983</v>
+        <v>0.5579867904241951</v>
       </c>
       <c r="E16">
-        <v>0.7148135490114953</v>
+        <v>0.04461809989361409</v>
       </c>
       <c r="F16">
-        <v>3.937611313252347</v>
+        <v>9.84858757445636</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.822685020537449</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5110273408497008</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.259018136433568</v>
+        <v>0.6851558447576309</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2064044100673073</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5152197016280837</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.620517629550079</v>
+        <v>2.812859599848764</v>
       </c>
       <c r="C17">
-        <v>1.573613721925824</v>
+        <v>0.3911298809364467</v>
       </c>
       <c r="D17">
-        <v>0.01387663292307728</v>
+        <v>0.5385509472082219</v>
       </c>
       <c r="E17">
-        <v>0.6800911825404654</v>
+        <v>0.04392576995923037</v>
       </c>
       <c r="F17">
-        <v>3.768905470110212</v>
+        <v>9.453057706099486</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.752363263410871</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4860610758892605</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.200287779792788</v>
+        <v>0.6517287496272388</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1988024000895763</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4921521128235753</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.52043088872432</v>
+        <v>2.734656154595996</v>
       </c>
       <c r="C18">
-        <v>1.52895337950423</v>
+        <v>0.3802038030743091</v>
       </c>
       <c r="D18">
-        <v>0.01400655405962503</v>
+        <v>0.5274919107715448</v>
       </c>
       <c r="E18">
-        <v>0.6603712693385972</v>
+        <v>0.04353332543222521</v>
       </c>
       <c r="F18">
-        <v>3.673323930473913</v>
+        <v>9.228013719126153</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.712610639696138</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4718979536775763</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.166831089310264</v>
+        <v>0.632762733619046</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1944854231024635</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.4790603431105893</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.486690598390794</v>
+        <v>2.70835222647122</v>
       </c>
       <c r="C19">
-        <v>1.513911873927896</v>
+        <v>0.3765294151523193</v>
       </c>
       <c r="D19">
-        <v>0.01405028806014474</v>
+        <v>0.5237669848354187</v>
       </c>
       <c r="E19">
-        <v>0.6537352874339888</v>
+        <v>0.04340137932947563</v>
       </c>
       <c r="F19">
-        <v>3.641199323909944</v>
+        <v>9.152217659991322</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.699264817855394</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4671345543293839</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.155555781513343</v>
+        <v>0.6263836265540021</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1930328864334285</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4746565158713238</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.639113394999526</v>
+        <v>2.827418218773573</v>
       </c>
       <c r="C20">
-        <v>1.581918282522395</v>
+        <v>0.393164288535047</v>
       </c>
       <c r="D20">
-        <v>0.01385246453607802</v>
+        <v>0.5406072397964579</v>
       </c>
       <c r="E20">
-        <v>0.6837608433740598</v>
+        <v>0.04399885813632043</v>
       </c>
       <c r="F20">
-        <v>3.78671115606096</v>
+        <v>9.494903315825979</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.759775903607064</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4886979699175882</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.206505524997141</v>
+        <v>0.6552596287139494</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.199605803209991</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4945891278049359</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.162736059845031</v>
+        <v>3.240919031720182</v>
       </c>
       <c r="C21">
-        <v>1.816638649017932</v>
+        <v>0.4510269589777636</v>
       </c>
       <c r="D21">
-        <v>0.01316896975033544</v>
+        <v>0.5987106870558705</v>
       </c>
       <c r="E21">
-        <v>0.7878346028213343</v>
+        <v>0.04608009848628658</v>
       </c>
       <c r="F21">
-        <v>4.293931436635262</v>
+        <v>10.67731444341337</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.971825575410094</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5636442226547587</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.381792922244216</v>
+        <v>0.7555695353048009</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2223857961976279</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5637770505320319</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.515159248464556</v>
+        <v>3.522919828627721</v>
       </c>
       <c r="C22">
-        <v>1.975576420974733</v>
+        <v>0.4906193214628161</v>
       </c>
       <c r="D22">
-        <v>0.01270686236948748</v>
+        <v>0.6380376380599273</v>
       </c>
       <c r="E22">
-        <v>0.8586922360044582</v>
+        <v>0.04750740602963699</v>
       </c>
       <c r="F22">
-        <v>4.64141456047119</v>
+        <v>11.47739384271728</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.11800718146425</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6148416358473483</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.499995506101996</v>
+        <v>0.824020472879802</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2378724842070881</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6109242701975148</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.32601618230342</v>
+        <v>3.371214184939788</v>
       </c>
       <c r="C23">
-        <v>1.890179243784587</v>
+        <v>0.4693040631366614</v>
       </c>
       <c r="D23">
-        <v>0.01295499983567083</v>
+        <v>0.6169090424792785</v>
       </c>
       <c r="E23">
-        <v>0.8205819460912949</v>
+        <v>0.04673863040709314</v>
       </c>
       <c r="F23">
-        <v>4.454330268968732</v>
+        <v>11.04758602718709</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.039216687767166</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5872888417294675</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.436534354752808</v>
+        <v>0.7871913402715336</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2295465876614315</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.5855650482026817</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.630703589088284</v>
+        <v>2.820833078300666</v>
       </c>
       <c r="C24">
-        <v>1.578162337652373</v>
+        <v>0.3922440710317119</v>
       </c>
       <c r="D24">
-        <v>0.01386339562046945</v>
+        <v>0.5396772350234187</v>
       </c>
       <c r="E24">
-        <v>0.6821010407660992</v>
+        <v>0.04396579773676379</v>
       </c>
       <c r="F24">
-        <v>3.778656846161141</v>
+        <v>9.475977648307747</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.756422557139288</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4875052421162707</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.203693530401765</v>
+        <v>0.6536625403493872</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1992424190445377</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.4934868272754898</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.914544993862933</v>
+        <v>2.267090900487062</v>
       </c>
       <c r="C25">
-        <v>1.259921566131538</v>
+        <v>0.3148846014893678</v>
       </c>
       <c r="D25">
-        <v>0.01478565165986456</v>
+        <v>0.4608445358661442</v>
       </c>
       <c r="E25">
-        <v>0.5421160643135394</v>
+        <v>0.04118949190010301</v>
       </c>
       <c r="F25">
-        <v>3.104231328617146</v>
+        <v>7.872443398676921</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.477392709263754</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3872233945337555</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9646100668614253</v>
+        <v>0.5193650124619253</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1686349966399305</v>
       </c>
       <c r="M25">
+        <v>0.4007583554228376</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.884137033849157</v>
+        <v>3.655087771692479</v>
       </c>
       <c r="C2">
-        <v>0.2612134550310401</v>
+        <v>1.102327439756522</v>
       </c>
       <c r="D2">
-        <v>0.4054248112437477</v>
+        <v>0.04394585665823314</v>
       </c>
       <c r="E2">
-        <v>0.03926462470867698</v>
+        <v>1.44607242820986</v>
       </c>
       <c r="F2">
-        <v>6.747200865476913</v>
+        <v>0.4100419245181186</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.07384185817875633</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4264217544676114</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1474370104511777</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3366119854745335</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.037545947469965</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.636207737085556</v>
+        <v>3.183736041384122</v>
       </c>
       <c r="C3">
-        <v>0.22623205139395</v>
+        <v>0.9648184972669469</v>
       </c>
       <c r="D3">
-        <v>0.3690077441941497</v>
+        <v>0.03870238359368727</v>
       </c>
       <c r="E3">
-        <v>0.03800892461162153</v>
+        <v>1.240163217300633</v>
       </c>
       <c r="F3">
-        <v>6.009701206300292</v>
+        <v>0.3673858865901565</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.08058953266054303</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3661649027288973</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.133722227818879</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2950947411423854</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9440195879715532</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.488631946308971</v>
+        <v>2.894821862557365</v>
       </c>
       <c r="C4">
-        <v>0.2052588037949334</v>
+        <v>0.8805447530158119</v>
       </c>
       <c r="D4">
-        <v>0.3470715864670666</v>
+        <v>0.0354851745418685</v>
       </c>
       <c r="E4">
-        <v>0.03725498229970103</v>
+        <v>1.116303712820084</v>
       </c>
       <c r="F4">
-        <v>5.566590483182182</v>
+        <v>0.3427384903625565</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.08570690861706609</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3302444806938567</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1255710734561646</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2703946115994498</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.891728895802828</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.429523102034949</v>
+        <v>2.777159453154582</v>
       </c>
       <c r="C5">
-        <v>0.1968154224902463</v>
+        <v>0.8462252171238163</v>
       </c>
       <c r="D5">
-        <v>0.3382206611601504</v>
+        <v>0.03417420971754126</v>
       </c>
       <c r="E5">
-        <v>0.03695111965697429</v>
+        <v>1.066376519789358</v>
       </c>
       <c r="F5">
-        <v>5.388111337152111</v>
+        <v>0.3330492113543784</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.08802068736118507</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3158420810020743</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1223104397437496</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2605053840369749</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.871602776057145</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.419766455557919</v>
+        <v>2.757624618278498</v>
       </c>
       <c r="C6">
-        <v>0.1954190043982749</v>
+        <v>0.8405273896543122</v>
       </c>
       <c r="D6">
-        <v>0.336755796357707</v>
+        <v>0.03395651574653868</v>
       </c>
       <c r="E6">
-        <v>0.03690084246015513</v>
+        <v>1.05811641595578</v>
       </c>
       <c r="F6">
-        <v>5.358591734396157</v>
+        <v>0.3314608048216456</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.08841821947982709</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3134638259811169</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1217725131425667</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2588733087162396</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8683292556127071</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.487830791092279</v>
+        <v>2.893234799267702</v>
       </c>
       <c r="C7">
-        <v>0.2051445442898512</v>
+        <v>0.8800818370922627</v>
       </c>
       <c r="D7">
-        <v>0.3469518855646641</v>
+        <v>0.03546749474057975</v>
       </c>
       <c r="E7">
-        <v>0.03725087177402386</v>
+        <v>1.115628289353467</v>
       </c>
       <c r="F7">
-        <v>5.564175420057154</v>
+        <v>0.3426064235677302</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.08573720935907758</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3300493357748593</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1255268608367714</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2702605567467806</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8914528168469644</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.797595684559553</v>
+        <v>3.492429187865469</v>
       </c>
       <c r="C8">
-        <v>0.2490318354347778</v>
+        <v>1.054871069334723</v>
       </c>
       <c r="D8">
-        <v>0.3927685336720401</v>
+        <v>0.04213710543540827</v>
       </c>
       <c r="E8">
-        <v>0.03882753362356262</v>
+        <v>1.374478723402376</v>
       </c>
       <c r="F8">
-        <v>6.490671471993608</v>
+        <v>0.3949929088822444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.07595591676090407</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4053989845286878</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1426478458993188</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3221180692923085</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.00416462771696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.449200869820515</v>
+        <v>4.674063522794654</v>
       </c>
       <c r="C9">
-        <v>0.3403336616757997</v>
+        <v>1.399735735263675</v>
       </c>
       <c r="D9">
-        <v>0.4869183695362125</v>
+        <v>0.05526100856252469</v>
       </c>
       <c r="E9">
-        <v>0.04210230702943996</v>
+        <v>1.907507807400791</v>
       </c>
       <c r="F9">
-        <v>8.402579872000786</v>
+        <v>0.5116070724179878</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.06531289568053822</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.563535676574908</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1787101692799808</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4312604936289048</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.271252654974006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.966557784181248</v>
+        <v>5.550426167245803</v>
       </c>
       <c r="C10">
-        <v>0.4126152705055688</v>
+        <v>1.655737624000608</v>
       </c>
       <c r="D10">
-        <v>0.5602216983196229</v>
+        <v>0.06497354724343296</v>
       </c>
       <c r="E10">
-        <v>0.04469792940962325</v>
+        <v>2.322606586173663</v>
       </c>
       <c r="F10">
-        <v>9.894069878976325</v>
+        <v>0.6082475796837628</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.06392497095707839</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6890071745818318</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.207279699308117</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5178768606030957</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.503695879744498</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.213477994578682</v>
+        <v>5.951947633293742</v>
       </c>
       <c r="C11">
-        <v>0.4471808666767743</v>
+        <v>1.773114414527527</v>
       </c>
       <c r="D11">
-        <v>0.5948716430131071</v>
+        <v>0.06941865122766444</v>
       </c>
       <c r="E11">
-        <v>0.04594159667040287</v>
+        <v>2.518644964101867</v>
       </c>
       <c r="F11">
-        <v>10.59919688524468</v>
+        <v>0.6552183642140506</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.06499616621398019</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7489107826947361</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2208765627733555</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5591874789819897</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.619346916535477</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.308965017199114</v>
+        <v>6.104502519388518</v>
       </c>
       <c r="C12">
-        <v>0.460568859218597</v>
+        <v>1.817726501095876</v>
       </c>
       <c r="D12">
-        <v>0.6082208157065736</v>
+        <v>0.0711068345521042</v>
       </c>
       <c r="E12">
-        <v>0.04642382302182302</v>
+        <v>2.594122115875166</v>
       </c>
       <c r="F12">
-        <v>10.87081874706837</v>
+        <v>0.6734964614842625</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06567546449162975</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7720828364016796</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2261265971321649</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5751565893646884</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.664759190403487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.288306253457961</v>
+        <v>6.071622877003449</v>
       </c>
       <c r="C13">
-        <v>0.4576712132270302</v>
+        <v>1.808110647279136</v>
       </c>
       <c r="D13">
-        <v>0.6053349731625701</v>
+        <v>0.07074301679300987</v>
       </c>
       <c r="E13">
-        <v>0.04631942522673071</v>
+        <v>2.577807938545249</v>
       </c>
       <c r="F13">
-        <v>10.81210152445516</v>
+        <v>0.6695370910378244</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.06551650094164074</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7670691673624503</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.224991144207209</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5717019587099301</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.654903591291315</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.22129198075794</v>
+        <v>5.964487655754908</v>
       </c>
       <c r="C14">
-        <v>0.4482759556408382</v>
+        <v>1.776781194522528</v>
       </c>
       <c r="D14">
-        <v>0.5959650616077568</v>
+        <v>0.06955743389205082</v>
       </c>
       <c r="E14">
-        <v>0.04598102940272852</v>
+        <v>2.524828344897372</v>
       </c>
       <c r="F14">
-        <v>10.62144616841988</v>
+        <v>0.6567119086606681</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.06504639141657975</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7508068653028701</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2213063641767832</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5604944148525277</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.623049407988248</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.18051258306599</v>
+        <v>5.898933363028561</v>
       </c>
       <c r="C15">
-        <v>0.4425618535491935</v>
+        <v>1.757613370764034</v>
       </c>
       <c r="D15">
-        <v>0.5902567302371722</v>
+        <v>0.06883190475601708</v>
       </c>
       <c r="E15">
-        <v>0.04577529425826832</v>
+        <v>2.492545127573337</v>
       </c>
       <c r="F15">
-        <v>10.50528926741367</v>
+        <v>0.6489219468152641</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06479498423583152</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7409119347179356</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2190629917967328</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5536735555833445</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.603754568127329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.950679914050795</v>
+        <v>5.524251317772553</v>
       </c>
       <c r="C16">
-        <v>0.410394821774986</v>
+        <v>1.64808791688597</v>
       </c>
       <c r="D16">
-        <v>0.5579867904241951</v>
+        <v>0.06468367645924644</v>
       </c>
       <c r="E16">
-        <v>0.04461809989361409</v>
+        <v>2.309956920494386</v>
       </c>
       <c r="F16">
-        <v>9.84858757445636</v>
+        <v>0.6052433350603508</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.06389161983394942</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6851558447576309</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2064044100673073</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5152197016280837</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.496353217418886</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.812859599848764</v>
+        <v>5.295193557993684</v>
       </c>
       <c r="C17">
-        <v>0.3911298809364467</v>
+        <v>1.58115468215351</v>
       </c>
       <c r="D17">
-        <v>0.5385509472082219</v>
+        <v>0.06214645325616175</v>
       </c>
       <c r="E17">
-        <v>0.04392576995923037</v>
+        <v>2.199927879083617</v>
       </c>
       <c r="F17">
-        <v>9.453057706099486</v>
+        <v>0.5792582134362618</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.06379305538173341</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6517287496272388</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1988024000895763</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4921521128235753</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.433134773948893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.734656154595996</v>
+        <v>5.163708394703576</v>
       </c>
       <c r="C18">
-        <v>0.3802038030743091</v>
+        <v>1.542740962536755</v>
       </c>
       <c r="D18">
-        <v>0.5274919107715448</v>
+        <v>0.06068956246520685</v>
       </c>
       <c r="E18">
-        <v>0.04353332543222521</v>
+        <v>2.137306608108474</v>
       </c>
       <c r="F18">
-        <v>9.228013719126153</v>
+        <v>0.5645915646413187</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.06389471815723624</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.632762733619046</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1944854231024635</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4790603431105893</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.397693381402377</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.70835222647122</v>
+        <v>5.119232156696569</v>
       </c>
       <c r="C19">
-        <v>0.3765294151523193</v>
+        <v>1.529748346110296</v>
       </c>
       <c r="D19">
-        <v>0.5237669848354187</v>
+        <v>0.06019667552747165</v>
       </c>
       <c r="E19">
-        <v>0.04340137932947563</v>
+        <v>2.116212480195927</v>
       </c>
       <c r="F19">
-        <v>9.152217659991322</v>
+        <v>0.5596719771062837</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.06395550847286557</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6263836265540021</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1930328864334285</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4746565158713238</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.385846060937553</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.827418218773573</v>
+        <v>5.319549286031304</v>
       </c>
       <c r="C20">
-        <v>0.393164288535047</v>
+        <v>1.588270875506794</v>
       </c>
       <c r="D20">
-        <v>0.5406072397964579</v>
+        <v>0.06241628389941667</v>
       </c>
       <c r="E20">
-        <v>0.04399885813632043</v>
+        <v>2.211570491222076</v>
       </c>
       <c r="F20">
-        <v>9.494903315825979</v>
+        <v>0.5819950625642605</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.06378695969643644</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6552596287139494</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.199605803209991</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4945891278049359</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.439767924287509</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.240919031720182</v>
+        <v>5.995941274445954</v>
       </c>
       <c r="C21">
-        <v>0.4510269589777636</v>
+        <v>1.785978690031186</v>
       </c>
       <c r="D21">
-        <v>0.5987106870558705</v>
+        <v>0.06990552563034669</v>
       </c>
       <c r="E21">
-        <v>0.04608009848628658</v>
+        <v>2.540354249011997</v>
       </c>
       <c r="F21">
-        <v>10.67731444341337</v>
+        <v>0.6604651419629732</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.06517680128665759</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7555695353048009</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2223857961976279</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5637770505320319</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.632360204326716</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.522919828627721</v>
+        <v>6.441013048128639</v>
       </c>
       <c r="C22">
-        <v>0.4906193214628161</v>
+        <v>1.916165979820619</v>
       </c>
       <c r="D22">
-        <v>0.6380376380599273</v>
+        <v>0.07482945308077404</v>
       </c>
       <c r="E22">
-        <v>0.04750740602963699</v>
+        <v>2.762589365951129</v>
       </c>
       <c r="F22">
-        <v>11.47739384271728</v>
+        <v>0.7146456245239534</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.06769601232103284</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.824020472879802</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2378724842070881</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6109242701975148</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.76776580218754</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.371214184939788</v>
+        <v>6.203159665616226</v>
       </c>
       <c r="C23">
-        <v>0.4693040631366614</v>
+        <v>1.846581946035485</v>
       </c>
       <c r="D23">
-        <v>0.6169090424792785</v>
+        <v>0.07219839097820113</v>
       </c>
       <c r="E23">
-        <v>0.04673863040709314</v>
+        <v>2.64322912257208</v>
       </c>
       <c r="F23">
-        <v>11.04758602718709</v>
+        <v>0.685442358305707</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.06619368425964112</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7871913402715336</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2295465876614315</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5855650482026817</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.694555221844496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.820833078300666</v>
+        <v>5.308537435611697</v>
       </c>
       <c r="C24">
-        <v>0.3922440710317119</v>
+        <v>1.585053437871693</v>
       </c>
       <c r="D24">
-        <v>0.5396772350234187</v>
+        <v>0.0622942879601851</v>
       </c>
       <c r="E24">
-        <v>0.04396579773676379</v>
+        <v>2.206304900711586</v>
       </c>
       <c r="F24">
-        <v>9.475977648307747</v>
+        <v>0.5807568885107202</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.06378922453665226</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6536625403493872</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1992424190445377</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4934868272754898</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.436766276362448</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.267090900487062</v>
+        <v>4.353285421662349</v>
       </c>
       <c r="C25">
-        <v>0.3148846014893678</v>
+        <v>1.306085055941878</v>
       </c>
       <c r="D25">
-        <v>0.4608445358661442</v>
+        <v>0.05170172861708267</v>
       </c>
       <c r="E25">
-        <v>0.04118949190010301</v>
+        <v>1.75982404006399</v>
       </c>
       <c r="F25">
-        <v>7.872443398676921</v>
+        <v>0.4783296799336298</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.06715835745994525</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5193650124619253</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1686349966399305</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4007583554228376</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.193275158560738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.655087771692479</v>
+        <v>1.199213271610233</v>
       </c>
       <c r="C2">
-        <v>1.102327439756522</v>
+        <v>0.354944670868008</v>
       </c>
       <c r="D2">
-        <v>0.04394585665823314</v>
+        <v>0.01503616514069961</v>
       </c>
       <c r="E2">
-        <v>1.44607242820986</v>
+        <v>0.4254321993331303</v>
       </c>
       <c r="F2">
-        <v>0.4100419245181186</v>
+        <v>0.4030827437275448</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.07384185817875633</v>
+        <v>0.2470587248881824</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.037545947469965</v>
+        <v>1.244608197349265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.183736041384122</v>
+        <v>1.049321093537515</v>
       </c>
       <c r="C3">
-        <v>0.9648184972669469</v>
+        <v>0.3110170542605033</v>
       </c>
       <c r="D3">
-        <v>0.03870238359368727</v>
+        <v>0.01326176328310424</v>
       </c>
       <c r="E3">
-        <v>1.240163217300633</v>
+        <v>0.3710241705299779</v>
       </c>
       <c r="F3">
-        <v>0.3673858865901565</v>
+        <v>0.3993247100541879</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.08058953266054303</v>
+        <v>0.2546024141071861</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9440195879715532</v>
+        <v>1.246152473051836</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.894821862557365</v>
+        <v>0.9569891392220029</v>
       </c>
       <c r="C4">
-        <v>0.8805447530158119</v>
+        <v>0.2839267843903315</v>
       </c>
       <c r="D4">
-        <v>0.0354851745418685</v>
+        <v>0.01216786834112327</v>
       </c>
       <c r="E4">
-        <v>1.116303712820084</v>
+        <v>0.3377147263827851</v>
       </c>
       <c r="F4">
-        <v>0.3427384903625565</v>
+        <v>0.3975013686066049</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.08570690861706609</v>
+        <v>0.2595819383436453</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.891728895802828</v>
+        <v>1.248714745250382</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.777159453154582</v>
+        <v>0.9192903332054243</v>
       </c>
       <c r="C5">
-        <v>0.8462252171238163</v>
+        <v>0.2728579909621658</v>
       </c>
       <c r="D5">
-        <v>0.03417420971754126</v>
+        <v>0.01172102449260137</v>
       </c>
       <c r="E5">
-        <v>1.066376519789358</v>
+        <v>0.3241633335824616</v>
       </c>
       <c r="F5">
-        <v>0.3330492113543784</v>
+        <v>0.3968793584726313</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.08802068736118507</v>
+        <v>0.2616981020691878</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.871602776057145</v>
+        <v>1.25016221876777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.757624618278498</v>
+        <v>0.9130261397797312</v>
       </c>
       <c r="C6">
-        <v>0.8405273896543122</v>
+        <v>0.2710182727439019</v>
       </c>
       <c r="D6">
-        <v>0.03395651574653868</v>
+        <v>0.01164676265852904</v>
       </c>
       <c r="E6">
-        <v>1.05811641595578</v>
+        <v>0.3219144347038565</v>
       </c>
       <c r="F6">
-        <v>0.3314608048216456</v>
+        <v>0.3967833622882466</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.08841821947982709</v>
+        <v>0.2620547286666621</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8683292556127071</v>
+        <v>1.250426856040676</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.893234799267702</v>
+        <v>0.9564810119189815</v>
       </c>
       <c r="C7">
-        <v>0.8800818370922627</v>
+        <v>0.2837776246635428</v>
       </c>
       <c r="D7">
-        <v>0.03546749474057975</v>
+        <v>0.0121618463455988</v>
       </c>
       <c r="E7">
-        <v>1.115628289353467</v>
+        <v>0.3375318791631088</v>
       </c>
       <c r="F7">
-        <v>0.3426064235677302</v>
+        <v>0.3974924909217421</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.08573720935907758</v>
+        <v>0.2596101261489689</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8914528168469644</v>
+        <v>1.248732636715403</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.492429187865469</v>
+        <v>1.14759337227639</v>
       </c>
       <c r="C8">
-        <v>1.054871069334723</v>
+        <v>0.3398233259204062</v>
       </c>
       <c r="D8">
-        <v>0.04213710543540827</v>
+        <v>0.0144252858462508</v>
       </c>
       <c r="E8">
-        <v>1.374478723402376</v>
+        <v>0.4066508972364602</v>
       </c>
       <c r="F8">
-        <v>0.3949929088822444</v>
+        <v>0.4016860639633606</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07595591676090407</v>
+        <v>0.2495873564182904</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.00416462771696</v>
+        <v>1.244804124213232</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674063522794654</v>
+        <v>1.519932936973134</v>
       </c>
       <c r="C9">
-        <v>1.399735735263675</v>
+        <v>0.4487710321283203</v>
       </c>
       <c r="D9">
-        <v>0.05526100856252469</v>
+        <v>0.01882763574549529</v>
       </c>
       <c r="E9">
-        <v>1.907507807400791</v>
+        <v>0.5430615204112854</v>
       </c>
       <c r="F9">
-        <v>0.5116070724179878</v>
+        <v>0.4137842399471268</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06531289568053822</v>
+        <v>0.2327115326399998</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.271252654974006</v>
+        <v>1.250024152912715</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.550426167245803</v>
+        <v>1.791942598005846</v>
       </c>
       <c r="C10">
-        <v>1.655737624000608</v>
+        <v>0.5282161006501269</v>
       </c>
       <c r="D10">
-        <v>0.06497354724343296</v>
+        <v>0.02203855149714684</v>
       </c>
       <c r="E10">
-        <v>2.322606586173663</v>
+        <v>0.6439546468780861</v>
       </c>
       <c r="F10">
-        <v>0.6082475796837628</v>
+        <v>0.4250827099878194</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06392497095707839</v>
+        <v>0.2220342732705323</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.503695879744498</v>
+        <v>1.26190253960533</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.951947633293742</v>
+        <v>1.915338907632815</v>
       </c>
       <c r="C11">
-        <v>1.773114414527527</v>
+        <v>0.564225176901175</v>
       </c>
       <c r="D11">
-        <v>0.06941865122766444</v>
+        <v>0.02349391636342801</v>
       </c>
       <c r="E11">
-        <v>2.518644964101867</v>
+        <v>0.690031129686048</v>
       </c>
       <c r="F11">
-        <v>0.6552183642140506</v>
+        <v>0.4307563817382345</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.06499616621398019</v>
+        <v>0.2175565732668723</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.619346916535477</v>
+        <v>1.269088469333695</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.104502519388518</v>
+        <v>1.962015122589662</v>
       </c>
       <c r="C12">
-        <v>1.817726501095876</v>
+        <v>0.5778416822854524</v>
       </c>
       <c r="D12">
-        <v>0.0711068345521042</v>
+        <v>0.02404423550894563</v>
       </c>
       <c r="E12">
-        <v>2.594122115875166</v>
+        <v>0.7075073357755883</v>
       </c>
       <c r="F12">
-        <v>0.6734964614842625</v>
+        <v>0.4329824448454502</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.06567546449162975</v>
+        <v>0.2159160425858815</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.664759190403487</v>
+        <v>1.272068743956197</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.071622877003449</v>
+        <v>1.951964878313788</v>
       </c>
       <c r="C13">
-        <v>1.808110647279136</v>
+        <v>0.574909993150527</v>
       </c>
       <c r="D13">
-        <v>0.07074301679300987</v>
+        <v>0.02392575037173827</v>
       </c>
       <c r="E13">
-        <v>2.577807938545249</v>
+        <v>0.7037422395795971</v>
       </c>
       <c r="F13">
-        <v>0.6695370910378244</v>
+        <v>0.4324995599823183</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.06551650094164074</v>
+        <v>0.2162669024471313</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.654903591291315</v>
+        <v>1.271415319235615</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.964487655754908</v>
+        <v>1.91918002760093</v>
       </c>
       <c r="C14">
-        <v>1.776781194522528</v>
+        <v>0.5653458057975058</v>
       </c>
       <c r="D14">
-        <v>0.06955743389205082</v>
+        <v>0.02353920759617267</v>
       </c>
       <c r="E14">
-        <v>2.524828344897372</v>
+        <v>0.6914683329632823</v>
       </c>
       <c r="F14">
-        <v>0.6567119086606681</v>
+        <v>0.4309379622260394</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.06504639141657975</v>
+        <v>0.2174204990424968</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.623049407988248</v>
+        <v>1.269328449053091</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.898933363028561</v>
+        <v>1.899091619540798</v>
       </c>
       <c r="C15">
-        <v>1.757613370764034</v>
+        <v>0.5594849293671018</v>
       </c>
       <c r="D15">
-        <v>0.06883190475601708</v>
+        <v>0.02330233432530093</v>
       </c>
       <c r="E15">
-        <v>2.492545127573337</v>
+        <v>0.6839539284820262</v>
       </c>
       <c r="F15">
-        <v>0.6489219468152641</v>
+        <v>0.4299915633601756</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.06479498423583152</v>
+        <v>0.2181342982195957</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.603754568127329</v>
+        <v>1.268084009353515</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.524251317772553</v>
+        <v>1.783871293892219</v>
       </c>
       <c r="C16">
-        <v>1.64808791688597</v>
+        <v>0.5258601436306094</v>
       </c>
       <c r="D16">
-        <v>0.06468367645924644</v>
+        <v>0.02194333044912611</v>
       </c>
       <c r="E16">
-        <v>2.309956920494386</v>
+        <v>0.6409472439179638</v>
       </c>
       <c r="F16">
-        <v>0.6052433350603508</v>
+        <v>0.4247227336731996</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.06389161983394942</v>
+        <v>0.2223345807100117</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.496353217418886</v>
+        <v>1.261469028813877</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.295193557993684</v>
+        <v>1.713098210472424</v>
       </c>
       <c r="C17">
-        <v>1.58115468215351</v>
+        <v>0.5051985243355261</v>
       </c>
       <c r="D17">
-        <v>0.06214645325616175</v>
+        <v>0.02110824433166414</v>
       </c>
       <c r="E17">
-        <v>2.199927879083617</v>
+        <v>0.6146116184445276</v>
       </c>
       <c r="F17">
-        <v>0.5792582134362618</v>
+        <v>0.4216277917657152</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.06379305538173341</v>
+        <v>0.2250088668850321</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.433134773948893</v>
+        <v>1.257869465458867</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.163708394703576</v>
+        <v>1.672359312328695</v>
       </c>
       <c r="C18">
-        <v>1.542740962536755</v>
+        <v>0.4933022189781013</v>
       </c>
       <c r="D18">
-        <v>0.06068956246520685</v>
+        <v>0.0206274283238983</v>
       </c>
       <c r="E18">
-        <v>2.137306608108474</v>
+        <v>0.5994808435457628</v>
       </c>
       <c r="F18">
-        <v>0.5645915646413187</v>
+        <v>0.4198978730123741</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06389471815723624</v>
+        <v>0.2265827293310387</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.397693381402377</v>
+        <v>1.255966690492045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.119232156696569</v>
+        <v>1.658560373303601</v>
       </c>
       <c r="C19">
-        <v>1.529748346110296</v>
+        <v>0.4892722401429523</v>
       </c>
       <c r="D19">
-        <v>0.06019667552747165</v>
+        <v>0.02046454805777387</v>
       </c>
       <c r="E19">
-        <v>2.116212480195927</v>
+        <v>0.5943606385196745</v>
       </c>
       <c r="F19">
-        <v>0.5596719771062837</v>
+        <v>0.4193207519033493</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.06395550847286557</v>
+        <v>0.2271217251800426</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.385846060937553</v>
+        <v>1.255351143183873</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.319549286031304</v>
+        <v>1.720635462592952</v>
       </c>
       <c r="C20">
-        <v>1.588270875506794</v>
+        <v>0.5073992646434249</v>
       </c>
       <c r="D20">
-        <v>0.06241628389941667</v>
+        <v>0.02119719231695427</v>
       </c>
       <c r="E20">
-        <v>2.211570491222076</v>
+        <v>0.617413338128884</v>
       </c>
       <c r="F20">
-        <v>0.5819950625642605</v>
+        <v>0.4219520513896455</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.06378695969643644</v>
+        <v>0.2247204877097619</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.439767924287509</v>
+        <v>1.258235278979754</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.995941274445954</v>
+        <v>1.928811141306539</v>
       </c>
       <c r="C21">
-        <v>1.785978690031186</v>
+        <v>0.5681555687934292</v>
       </c>
       <c r="D21">
-        <v>0.06990552563034669</v>
+        <v>0.02365276645058856</v>
       </c>
       <c r="E21">
-        <v>2.540354249011997</v>
+        <v>0.695072698124676</v>
       </c>
       <c r="F21">
-        <v>0.6604651419629732</v>
+        <v>0.4313945299252424</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.06517680128665759</v>
+        <v>0.2170801608760939</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.632360204326716</v>
+        <v>1.269934358543964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.441013048128639</v>
+        <v>2.064566090058918</v>
       </c>
       <c r="C22">
-        <v>1.916165979820619</v>
+        <v>0.6077502989650725</v>
       </c>
       <c r="D22">
-        <v>0.07482945308077404</v>
+        <v>0.02525297134520343</v>
       </c>
       <c r="E22">
-        <v>2.762589365951129</v>
+        <v>0.7459920709235348</v>
       </c>
       <c r="F22">
-        <v>0.7146456245239534</v>
+        <v>0.4380182199325873</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.06769601232103284</v>
+        <v>0.2124080368787808</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.76776580218754</v>
+        <v>1.279092037482741</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.203159665616226</v>
+        <v>1.992139235232116</v>
       </c>
       <c r="C23">
-        <v>1.846581946035485</v>
+        <v>0.5866283605292324</v>
       </c>
       <c r="D23">
-        <v>0.07219839097820113</v>
+        <v>0.02439934891990703</v>
       </c>
       <c r="E23">
-        <v>2.64322912257208</v>
+        <v>0.7187996576595594</v>
       </c>
       <c r="F23">
-        <v>0.685442358305707</v>
+        <v>0.434441369289047</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.06619368425964112</v>
+        <v>0.2148720707879548</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.694555221844496</v>
+        <v>1.27406516419245</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.308537435611697</v>
+        <v>1.717228028083412</v>
       </c>
       <c r="C24">
-        <v>1.585053437871693</v>
+        <v>0.5064043649381915</v>
       </c>
       <c r="D24">
-        <v>0.0622942879601851</v>
+        <v>0.02115698115353126</v>
       </c>
       <c r="E24">
-        <v>2.206304900711586</v>
+        <v>0.6161466499250565</v>
       </c>
       <c r="F24">
-        <v>0.5807568885107202</v>
+        <v>0.4218052997839123</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.06378922453665226</v>
+        <v>0.2248507506545945</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.436766276362448</v>
+        <v>1.258069375765729</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.353285421662349</v>
+        <v>1.419472465225738</v>
       </c>
       <c r="C25">
-        <v>1.306085055941878</v>
+        <v>0.4194019072779156</v>
       </c>
       <c r="D25">
-        <v>0.05170172861708267</v>
+        <v>0.01764071084648577</v>
       </c>
       <c r="E25">
-        <v>1.75982404006399</v>
+        <v>0.506051184457263</v>
       </c>
       <c r="F25">
-        <v>0.4783296799336298</v>
+        <v>0.4100916148856655</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.06715835745994525</v>
+        <v>0.2369765749567776</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.193275158560738</v>
+        <v>1.247211425952941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.199213271610233</v>
+        <v>3.655087771692706</v>
       </c>
       <c r="C2">
-        <v>0.354944670868008</v>
+        <v>1.102327439756209</v>
       </c>
       <c r="D2">
-        <v>0.01503616514069961</v>
+        <v>0.04394585665822603</v>
       </c>
       <c r="E2">
-        <v>0.4254321993331303</v>
+        <v>1.446072428209845</v>
       </c>
       <c r="F2">
-        <v>0.4030827437275448</v>
+        <v>0.410041924518147</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2470587248881824</v>
+        <v>0.07384185817875633</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.244608197349265</v>
+        <v>1.037545947469965</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049321093537515</v>
+        <v>3.183736041384179</v>
       </c>
       <c r="C3">
-        <v>0.3110170542605033</v>
+        <v>0.9648184972672595</v>
       </c>
       <c r="D3">
-        <v>0.01326176328310424</v>
+        <v>0.03870238359341727</v>
       </c>
       <c r="E3">
-        <v>0.3710241705299779</v>
+        <v>1.240163217300619</v>
       </c>
       <c r="F3">
-        <v>0.3993247100541879</v>
+        <v>0.3673858865901636</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2546024141071861</v>
+        <v>0.08058953266052704</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.246152473051836</v>
+        <v>0.9440195879715247</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9569891392220029</v>
+        <v>2.894821862557308</v>
       </c>
       <c r="C4">
-        <v>0.2839267843903315</v>
+        <v>0.8805447530160393</v>
       </c>
       <c r="D4">
-        <v>0.01216786834112327</v>
+        <v>0.03548517454185429</v>
       </c>
       <c r="E4">
-        <v>0.3377147263827851</v>
+        <v>1.116303712820056</v>
       </c>
       <c r="F4">
-        <v>0.3975013686066049</v>
+        <v>0.3427384903625565</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2595819383436453</v>
+        <v>0.08570690861704833</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.248714745250382</v>
+        <v>0.891728895802899</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9192903332054243</v>
+        <v>2.777159453154695</v>
       </c>
       <c r="C5">
-        <v>0.2728579909621658</v>
+        <v>0.846225217123532</v>
       </c>
       <c r="D5">
-        <v>0.01172102449260137</v>
+        <v>0.03417420971765495</v>
       </c>
       <c r="E5">
-        <v>0.3241633335824616</v>
+        <v>1.066376519789344</v>
       </c>
       <c r="F5">
-        <v>0.3968793584726313</v>
+        <v>0.3330492113543571</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2616981020691878</v>
+        <v>0.08802068736117974</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.25016221876777</v>
+        <v>0.8716027760570171</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9130261397797312</v>
+        <v>2.757624618278669</v>
       </c>
       <c r="C6">
-        <v>0.2710182727439019</v>
+        <v>0.8405273896543406</v>
       </c>
       <c r="D6">
-        <v>0.01164676265852904</v>
+        <v>0.03395651574653158</v>
       </c>
       <c r="E6">
-        <v>0.3219144347038565</v>
+        <v>1.05811641595578</v>
       </c>
       <c r="F6">
-        <v>0.3967833622882466</v>
+        <v>0.3314608048216598</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2620547286666621</v>
+        <v>0.08841821947982531</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.250426856040676</v>
+        <v>0.8683292556127924</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9564810119189815</v>
+        <v>2.893234799267702</v>
       </c>
       <c r="C7">
-        <v>0.2837776246635428</v>
+        <v>0.8800818370924617</v>
       </c>
       <c r="D7">
-        <v>0.0121618463455988</v>
+        <v>0.03546749474057265</v>
       </c>
       <c r="E7">
-        <v>0.3375318791631088</v>
+        <v>1.115628289353467</v>
       </c>
       <c r="F7">
-        <v>0.3974924909217421</v>
+        <v>0.3426064235677373</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2596101261489689</v>
+        <v>0.08573720935909535</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.248732636715403</v>
+        <v>0.8914528168469928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.14759337227639</v>
+        <v>3.492429187865412</v>
       </c>
       <c r="C8">
-        <v>0.3398233259204062</v>
+        <v>1.054871069334382</v>
       </c>
       <c r="D8">
-        <v>0.0144252858462508</v>
+        <v>0.04213710543551485</v>
       </c>
       <c r="E8">
-        <v>0.4066508972364602</v>
+        <v>1.374478723402405</v>
       </c>
       <c r="F8">
-        <v>0.4016860639633606</v>
+        <v>0.3949929088822444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2495873564182904</v>
+        <v>0.07595591676090763</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.244804124213232</v>
+        <v>1.004164627716932</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.519932936973134</v>
+        <v>4.674063522794881</v>
       </c>
       <c r="C9">
-        <v>0.4487710321283203</v>
+        <v>1.399735735263619</v>
       </c>
       <c r="D9">
-        <v>0.01882763574549529</v>
+        <v>0.05526100856225469</v>
       </c>
       <c r="E9">
-        <v>0.5430615204112854</v>
+        <v>1.907507807400791</v>
       </c>
       <c r="F9">
-        <v>0.4137842399471268</v>
+        <v>0.5116070724179664</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2327115326399998</v>
+        <v>0.06531289568055421</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.250024152912715</v>
+        <v>1.271252654973978</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791942598005846</v>
+        <v>5.550426167245632</v>
       </c>
       <c r="C10">
-        <v>0.5282161006501269</v>
+        <v>1.655737624000665</v>
       </c>
       <c r="D10">
-        <v>0.02203855149714684</v>
+        <v>0.06497354724344007</v>
       </c>
       <c r="E10">
-        <v>0.6439546468780861</v>
+        <v>2.322606586173649</v>
       </c>
       <c r="F10">
-        <v>0.4250827099878194</v>
+        <v>0.6082475796837628</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2220342732705323</v>
+        <v>0.06392497095709615</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.26190253960533</v>
+        <v>1.503695879744527</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915338907632815</v>
+        <v>5.951947633293571</v>
       </c>
       <c r="C11">
-        <v>0.564225176901175</v>
+        <v>1.773114414527754</v>
       </c>
       <c r="D11">
-        <v>0.02349391636342801</v>
+        <v>0.06941865122753654</v>
       </c>
       <c r="E11">
-        <v>0.690031129686048</v>
+        <v>2.518644964101924</v>
       </c>
       <c r="F11">
-        <v>0.4307563817382345</v>
+        <v>0.6552183642140648</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2175565732668723</v>
+        <v>0.06499616621396598</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.269088469333695</v>
+        <v>1.619346916535477</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.962015122589662</v>
+        <v>6.104502519388689</v>
       </c>
       <c r="C12">
-        <v>0.5778416822854524</v>
+        <v>1.817726501095933</v>
       </c>
       <c r="D12">
-        <v>0.02404423550894563</v>
+        <v>0.07110683455211131</v>
       </c>
       <c r="E12">
-        <v>0.7075073357755883</v>
+        <v>2.594122115875194</v>
       </c>
       <c r="F12">
-        <v>0.4329824448454502</v>
+        <v>0.6734964614842625</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2159160425858815</v>
+        <v>0.0656754644916262</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.272068743956197</v>
+        <v>1.664759190403487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.951964878313788</v>
+        <v>6.071622877003563</v>
       </c>
       <c r="C13">
-        <v>0.574909993150527</v>
+        <v>1.808110647279875</v>
       </c>
       <c r="D13">
-        <v>0.02392575037173827</v>
+        <v>0.07074301679310935</v>
       </c>
       <c r="E13">
-        <v>0.7037422395795971</v>
+        <v>2.577807938545263</v>
       </c>
       <c r="F13">
-        <v>0.4324995599823183</v>
+        <v>0.6695370910378244</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2162669024471313</v>
+        <v>0.06551650094165495</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.271415319235615</v>
+        <v>1.654903591291372</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.91918002760093</v>
+        <v>5.964487655754453</v>
       </c>
       <c r="C14">
-        <v>0.5653458057975058</v>
+        <v>1.776781194522584</v>
       </c>
       <c r="D14">
-        <v>0.02353920759617267</v>
+        <v>0.06955743389187319</v>
       </c>
       <c r="E14">
-        <v>0.6914683329632823</v>
+        <v>2.52482834489733</v>
       </c>
       <c r="F14">
-        <v>0.4309379622260394</v>
+        <v>0.6567119086606823</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2174204990424968</v>
+        <v>0.0650463914165762</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.269328449053091</v>
+        <v>1.623049407988248</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.899091619540798</v>
+        <v>5.898933363028561</v>
       </c>
       <c r="C15">
-        <v>0.5594849293671018</v>
+        <v>1.757613370763863</v>
       </c>
       <c r="D15">
-        <v>0.02330233432530093</v>
+        <v>0.06883190475600287</v>
       </c>
       <c r="E15">
-        <v>0.6839539284820262</v>
+        <v>2.492545127573379</v>
       </c>
       <c r="F15">
-        <v>0.4299915633601756</v>
+        <v>0.6489219468152783</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2181342982195957</v>
+        <v>0.06479498423583152</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.268084009353515</v>
+        <v>1.603754568127329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783871293892219</v>
+        <v>5.52425131777261</v>
       </c>
       <c r="C16">
-        <v>0.5258601436306094</v>
+        <v>1.648087916885345</v>
       </c>
       <c r="D16">
-        <v>0.02194333044912611</v>
+        <v>0.06468367645886275</v>
       </c>
       <c r="E16">
-        <v>0.6409472439179638</v>
+        <v>2.309956920494358</v>
       </c>
       <c r="F16">
-        <v>0.4247227336731996</v>
+        <v>0.6052433350603366</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2223345807100117</v>
+        <v>0.06389161983396363</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.261469028813877</v>
+        <v>1.496353217418971</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.713098210472424</v>
+        <v>5.295193557993684</v>
       </c>
       <c r="C17">
-        <v>0.5051985243355261</v>
+        <v>1.581154682153112</v>
       </c>
       <c r="D17">
-        <v>0.02110824433166414</v>
+        <v>0.06214645325616175</v>
       </c>
       <c r="E17">
-        <v>0.6146116184445276</v>
+        <v>2.19992787908356</v>
       </c>
       <c r="F17">
-        <v>0.4216277917657152</v>
+        <v>0.5792582134362689</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2250088668850321</v>
+        <v>0.06379305538176183</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.257869465458867</v>
+        <v>1.433134773949007</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.672359312328695</v>
+        <v>5.163708394703633</v>
       </c>
       <c r="C18">
-        <v>0.4933022189781013</v>
+        <v>1.542740962536698</v>
       </c>
       <c r="D18">
-        <v>0.0206274283238983</v>
+        <v>0.06068956246519264</v>
       </c>
       <c r="E18">
-        <v>0.5994808435457628</v>
+        <v>2.13730660810846</v>
       </c>
       <c r="F18">
-        <v>0.4198978730123741</v>
+        <v>0.5645915646413115</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2265827293310387</v>
+        <v>0.06389471815723624</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.255966690492045</v>
+        <v>1.39769338140232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.658560373303601</v>
+        <v>5.119232156696398</v>
       </c>
       <c r="C19">
-        <v>0.4892722401429523</v>
+        <v>1.529748346110296</v>
       </c>
       <c r="D19">
-        <v>0.02046454805777387</v>
+        <v>0.0601966755275285</v>
       </c>
       <c r="E19">
-        <v>0.5943606385196745</v>
+        <v>2.116212480195927</v>
       </c>
       <c r="F19">
-        <v>0.4193207519033493</v>
+        <v>0.5596719771062908</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2271217251800426</v>
+        <v>0.06395550847286202</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.255351143183873</v>
+        <v>1.385846060937496</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.720635462592952</v>
+        <v>5.319549286031247</v>
       </c>
       <c r="C20">
-        <v>0.5073992646434249</v>
+        <v>1.588270875506566</v>
       </c>
       <c r="D20">
-        <v>0.02119719231695427</v>
+        <v>0.06241628389942377</v>
       </c>
       <c r="E20">
-        <v>0.617413338128884</v>
+        <v>2.21157049122202</v>
       </c>
       <c r="F20">
-        <v>0.4219520513896455</v>
+        <v>0.5819950625642534</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2247204877097619</v>
+        <v>0.06378695969642223</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.258235278979754</v>
+        <v>1.439767924287452</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.928811141306539</v>
+        <v>5.995941274445784</v>
       </c>
       <c r="C21">
-        <v>0.5681555687934292</v>
+        <v>1.785978690030845</v>
       </c>
       <c r="D21">
-        <v>0.02365276645058856</v>
+        <v>0.06990552563040353</v>
       </c>
       <c r="E21">
-        <v>0.695072698124676</v>
+        <v>2.540354249011997</v>
       </c>
       <c r="F21">
-        <v>0.4313945299252424</v>
+        <v>0.6604651419629874</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2170801608760939</v>
+        <v>0.06517680128665759</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.269934358543964</v>
+        <v>1.632360204326687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064566090058918</v>
+        <v>6.441013048128411</v>
       </c>
       <c r="C22">
-        <v>0.6077502989650725</v>
+        <v>1.916165979820562</v>
       </c>
       <c r="D22">
-        <v>0.02525297134520343</v>
+        <v>0.07482945308093747</v>
       </c>
       <c r="E22">
-        <v>0.7459920709235348</v>
+        <v>2.762589365951129</v>
       </c>
       <c r="F22">
-        <v>0.4380182199325873</v>
+        <v>0.7146456245239534</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2124080368787808</v>
+        <v>0.06769601232102573</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.279092037482741</v>
+        <v>1.767765802187569</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992139235232116</v>
+        <v>6.203159665616056</v>
       </c>
       <c r="C23">
-        <v>0.5866283605292324</v>
+        <v>1.846581946035485</v>
       </c>
       <c r="D23">
-        <v>0.02439934891990703</v>
+        <v>0.0721983909784214</v>
       </c>
       <c r="E23">
-        <v>0.7187996576595594</v>
+        <v>2.643229122572066</v>
       </c>
       <c r="F23">
-        <v>0.434441369289047</v>
+        <v>0.6854423583057354</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2148720707879548</v>
+        <v>0.06619368425963756</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.27406516419245</v>
+        <v>1.694555221844467</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.717228028083412</v>
+        <v>5.30853743561164</v>
       </c>
       <c r="C24">
-        <v>0.5064043649381915</v>
+        <v>1.585053437871636</v>
       </c>
       <c r="D24">
-        <v>0.02115698115353126</v>
+        <v>0.06229428796034142</v>
       </c>
       <c r="E24">
-        <v>0.6161466499250565</v>
+        <v>2.206304900711544</v>
       </c>
       <c r="F24">
-        <v>0.4218052997839123</v>
+        <v>0.5807568885107273</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2248507506545945</v>
+        <v>0.0637892245366487</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.258069375765729</v>
+        <v>1.436766276362476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.419472465225738</v>
+        <v>4.353285421662235</v>
       </c>
       <c r="C25">
-        <v>0.4194019072779156</v>
+        <v>1.306085055941935</v>
       </c>
       <c r="D25">
-        <v>0.01764071084648577</v>
+        <v>0.05170172861718214</v>
       </c>
       <c r="E25">
-        <v>0.506051184457263</v>
+        <v>1.759824040063975</v>
       </c>
       <c r="F25">
-        <v>0.4100916148856655</v>
+        <v>0.4783296799336227</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2369765749567776</v>
+        <v>0.06715835745996124</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.247211425952941</v>
+        <v>1.193275158560709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.655087771692706</v>
+        <v>0.8101282200891546</v>
       </c>
       <c r="C2">
-        <v>1.102327439756209</v>
+        <v>0.151817409099678</v>
       </c>
       <c r="D2">
-        <v>0.04394585665822603</v>
+        <v>0.120244092412964</v>
       </c>
       <c r="E2">
-        <v>1.446072428209845</v>
+        <v>0.02120841544272878</v>
       </c>
       <c r="F2">
-        <v>0.410041924518147</v>
+        <v>2.683407408542394</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02492545129320223</v>
       </c>
       <c r="I2">
-        <v>0.07384185817875633</v>
+        <v>0.03360310961498802</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.992206218003105</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8980597027594399</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1652165364773808</v>
       </c>
       <c r="O2">
-        <v>1.037545947469965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1939323245153055</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.183736041384179</v>
+        <v>0.7053731932547578</v>
       </c>
       <c r="C3">
-        <v>0.9648184972672595</v>
+        <v>0.1301894143660434</v>
       </c>
       <c r="D3">
-        <v>0.03870238359341727</v>
+        <v>0.1160263606578127</v>
       </c>
       <c r="E3">
-        <v>1.240163217300619</v>
+        <v>0.0183538704436792</v>
       </c>
       <c r="F3">
-        <v>0.3673858865901636</v>
+        <v>2.458947566298534</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03042686080099899</v>
       </c>
       <c r="I3">
-        <v>0.08058953266052704</v>
+        <v>0.0407873347602461</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.844593813104211</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7797400015601283</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1445657282055137</v>
       </c>
       <c r="O3">
-        <v>0.9440195879715247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1692717063205649</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.894821862557308</v>
+        <v>0.641185437729888</v>
       </c>
       <c r="C4">
-        <v>0.8805447530160393</v>
+        <v>0.1172578231718262</v>
       </c>
       <c r="D4">
-        <v>0.03548517454185429</v>
+        <v>0.1132942064504476</v>
       </c>
       <c r="E4">
-        <v>1.116303712820056</v>
+        <v>0.01663051748659505</v>
       </c>
       <c r="F4">
-        <v>0.3427384903625565</v>
+        <v>2.320565960750201</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.03420094272130791</v>
       </c>
       <c r="I4">
-        <v>0.08570690861704833</v>
+        <v>0.04573984541243359</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.753016916449297</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7076064873161272</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1319309868261058</v>
       </c>
       <c r="O4">
-        <v>0.891728895802899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1541563499077263</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.777159453154695</v>
+        <v>0.6148777436896466</v>
       </c>
       <c r="C5">
-        <v>0.846225217123532</v>
+        <v>0.1123101370022397</v>
       </c>
       <c r="D5">
-        <v>0.03417420971765495</v>
+        <v>0.1119518093502236</v>
       </c>
       <c r="E5">
-        <v>1.066376519789344</v>
+        <v>0.01591228949666945</v>
       </c>
       <c r="F5">
-        <v>0.3330492113543571</v>
+        <v>2.259758579113324</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03584963247839745</v>
       </c>
       <c r="I5">
-        <v>0.08802068736117974</v>
+        <v>0.04800733878944863</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.711849019169435</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6785441181365996</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1268208740095389</v>
       </c>
       <c r="O5">
-        <v>0.8716027760570171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1479903946289198</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.757624618278669</v>
+        <v>0.6102963915394355</v>
       </c>
       <c r="C6">
-        <v>0.8405273896543406</v>
+        <v>0.1117912903018095</v>
       </c>
       <c r="D6">
-        <v>0.03395651574653158</v>
+        <v>0.1114915451998222</v>
       </c>
       <c r="E6">
-        <v>1.05811641595578</v>
+        <v>0.01576659463204599</v>
       </c>
       <c r="F6">
-        <v>0.3314608048216598</v>
+        <v>2.244451065301206</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.03614716501993032</v>
       </c>
       <c r="I6">
-        <v>0.08841821947982531</v>
+        <v>0.04854324660535614</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.700595528019392</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6739935055874042</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1260096440283718</v>
       </c>
       <c r="O6">
-        <v>0.8683292556127924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.146953460861905</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.893234799267702</v>
+        <v>0.6402406357260304</v>
       </c>
       <c r="C7">
-        <v>0.8800818370924617</v>
+        <v>0.1180057517291715</v>
       </c>
       <c r="D7">
-        <v>0.03546749474057265</v>
+        <v>0.1126328331071385</v>
       </c>
       <c r="E7">
-        <v>1.115628289353467</v>
+        <v>0.01654715844913834</v>
       </c>
       <c r="F7">
-        <v>0.3426064235677373</v>
+        <v>2.305517133895336</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03427017586612457</v>
       </c>
       <c r="I7">
-        <v>0.08573720935909535</v>
+        <v>0.04616302755089574</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.74041438966384</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7079461850255768</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1319627855835606</v>
       </c>
       <c r="O7">
-        <v>0.8914528168469928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1540364172315556</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.492429187865412</v>
+        <v>0.7731730207079295</v>
       </c>
       <c r="C8">
-        <v>1.054871069334382</v>
+        <v>0.1453656255593785</v>
       </c>
       <c r="D8">
-        <v>0.04213710543551485</v>
+        <v>0.1179690509650477</v>
       </c>
       <c r="E8">
-        <v>1.374478723402405</v>
+        <v>0.02011718882005287</v>
       </c>
       <c r="F8">
-        <v>0.3949929088822444</v>
+        <v>2.587205408519111</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.02679146170619684</v>
       </c>
       <c r="I8">
-        <v>0.07595591676090763</v>
+        <v>0.03643032859793216</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.925486471494281</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8581048041491215</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1582187102534789</v>
       </c>
       <c r="O8">
-        <v>1.004164627716932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1853718387887113</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674063522794881</v>
+        <v>1.036442837486248</v>
       </c>
       <c r="C9">
-        <v>1.399735735263619</v>
+        <v>0.2007270935724108</v>
       </c>
       <c r="D9">
-        <v>0.05526100856225469</v>
+        <v>0.1284485951489387</v>
       </c>
       <c r="E9">
-        <v>1.907507807400791</v>
+        <v>0.02755631444492757</v>
       </c>
       <c r="F9">
-        <v>0.5116070724179664</v>
+        <v>3.161696096480313</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01537781867027355</v>
       </c>
       <c r="I9">
-        <v>0.06531289568055421</v>
+        <v>0.02128997265464516</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.303055024680091</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.156162978377893</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2100133897326657</v>
       </c>
       <c r="O9">
-        <v>1.271252654973978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2472025307469785</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.550426167245632</v>
+        <v>1.231389164724675</v>
       </c>
       <c r="C10">
-        <v>1.655737624000665</v>
+        <v>0.2464687019594152</v>
       </c>
       <c r="D10">
-        <v>0.06497354724344007</v>
+        <v>0.1320699206525582</v>
       </c>
       <c r="E10">
-        <v>2.322606586173649</v>
+        <v>0.03138335239852097</v>
       </c>
       <c r="F10">
-        <v>0.6082475796837628</v>
+        <v>3.505194538240602</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.009765630098524269</v>
       </c>
       <c r="I10">
-        <v>0.06392497095709615</v>
+        <v>0.01364886082081629</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.512693472754805</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.38308127888908</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2361357821599057</v>
       </c>
       <c r="O10">
-        <v>1.503695879744527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2876640701013216</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.951947633293571</v>
+        <v>1.321741134669821</v>
       </c>
       <c r="C11">
-        <v>1.773114414527754</v>
+        <v>0.2887486852072527</v>
       </c>
       <c r="D11">
-        <v>0.06941865122753654</v>
+        <v>0.1112384591097815</v>
       </c>
       <c r="E11">
-        <v>2.518644964101924</v>
+        <v>0.02178700413651757</v>
       </c>
       <c r="F11">
-        <v>0.6552183642140648</v>
+        <v>3.04814967555069</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02825518313531461</v>
       </c>
       <c r="I11">
-        <v>0.06499616621396598</v>
+        <v>0.01283552099927032</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.110226581144275</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.519180661438241</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1522174743673901</v>
       </c>
       <c r="O11">
-        <v>1.619346916535477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2611626182344438</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.104502519388689</v>
+        <v>1.357991223627209</v>
       </c>
       <c r="C12">
-        <v>1.817726501095933</v>
+        <v>0.314667852663689</v>
       </c>
       <c r="D12">
-        <v>0.07110683455211131</v>
+        <v>0.1003412823921481</v>
       </c>
       <c r="E12">
-        <v>2.594122115875194</v>
+        <v>0.01980303332647093</v>
       </c>
       <c r="F12">
-        <v>0.6734964614842625</v>
+        <v>2.640241228304745</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06743214627664429</v>
       </c>
       <c r="I12">
-        <v>0.0656754644916262</v>
+        <v>0.01283450280047127</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.777128124898368</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.586278631833636</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09238467647630699</v>
       </c>
       <c r="O12">
-        <v>1.664759190403487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2316423615917351</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.071622877003563</v>
+        <v>1.353351212294768</v>
       </c>
       <c r="C13">
-        <v>1.808110647279875</v>
+        <v>0.3304126509298158</v>
       </c>
       <c r="D13">
-        <v>0.07074301679310935</v>
+        <v>0.09532635159150082</v>
       </c>
       <c r="E13">
-        <v>2.577807938545263</v>
+        <v>0.02331758804488526</v>
       </c>
       <c r="F13">
-        <v>0.6695370910378244</v>
+        <v>2.22539830350847</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1242839170564309</v>
       </c>
       <c r="I13">
-        <v>0.06551650094165495</v>
+        <v>0.01393773689493383</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.460205202250663</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.604535547349172</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04803201977336968</v>
       </c>
       <c r="O13">
-        <v>1.654903591291372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1982740526772204</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.964487655754453</v>
+        <v>1.331453027646063</v>
       </c>
       <c r="C14">
-        <v>1.776781194522584</v>
+        <v>0.3372051951191963</v>
       </c>
       <c r="D14">
-        <v>0.06955743389187319</v>
+        <v>0.09524064510980423</v>
       </c>
       <c r="E14">
-        <v>2.52482834489733</v>
+        <v>0.02912000067794551</v>
       </c>
       <c r="F14">
-        <v>0.6567119086606823</v>
+        <v>1.934665536724808</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1746804967233686</v>
       </c>
       <c r="I14">
-        <v>0.0650463914165762</v>
+        <v>0.01536052994549131</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.249013596740227</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.595513341354689</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02648178341850382</v>
       </c>
       <c r="O14">
-        <v>1.623049407988248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1736069322332199</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.898933363028561</v>
+        <v>1.31711226410485</v>
       </c>
       <c r="C15">
-        <v>1.757613370763863</v>
+        <v>0.3368953568756865</v>
       </c>
       <c r="D15">
-        <v>0.06883190475600287</v>
+        <v>0.09566078709309167</v>
       </c>
       <c r="E15">
-        <v>2.492545127573379</v>
+        <v>0.03081614173001768</v>
       </c>
       <c r="F15">
-        <v>0.6489219468152783</v>
+        <v>1.85549922454021</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1876689961917748</v>
       </c>
       <c r="I15">
-        <v>0.06479498423583152</v>
+        <v>0.01614227932170031</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.194438398573624</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.58298042147274</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.02242582582435482</v>
       </c>
       <c r="O15">
-        <v>1.603754568127329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1666637622653688</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.52425131777261</v>
+        <v>1.233398366557878</v>
       </c>
       <c r="C16">
-        <v>1.648087916885345</v>
+        <v>0.313587315909075</v>
       </c>
       <c r="D16">
-        <v>0.06468367645886275</v>
+        <v>0.09499004715314641</v>
       </c>
       <c r="E16">
-        <v>2.309956920494358</v>
+        <v>0.02837861918149365</v>
       </c>
       <c r="F16">
-        <v>0.6052433350603366</v>
+        <v>1.794327238761042</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1773279780407506</v>
       </c>
       <c r="I16">
-        <v>0.06389161983396363</v>
+        <v>0.01930774033000837</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.170707179444818</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.480573667239582</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02192770740520089</v>
       </c>
       <c r="O16">
-        <v>1.496353217418971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1571017039894933</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.295193557993684</v>
+        <v>1.180975007094929</v>
       </c>
       <c r="C17">
-        <v>1.581154682153112</v>
+        <v>0.2922271596025041</v>
       </c>
       <c r="D17">
-        <v>0.06214645325616175</v>
+        <v>0.0939148250275359</v>
       </c>
       <c r="E17">
-        <v>2.19992787908356</v>
+        <v>0.02283098414263485</v>
       </c>
       <c r="F17">
-        <v>0.5792582134362689</v>
+        <v>1.897091335354588</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1408626142619624</v>
       </c>
       <c r="I17">
-        <v>0.06379305538176183</v>
+        <v>0.02105355502799533</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.259904184659661</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.407156994862305</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03122120136858797</v>
       </c>
       <c r="O17">
-        <v>1.433134773949007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1625512340878608</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.163708394703633</v>
+        <v>1.149873797753884</v>
       </c>
       <c r="C18">
-        <v>1.542740962536698</v>
+        <v>0.2696665722452849</v>
       </c>
       <c r="D18">
-        <v>0.06068956246519264</v>
+        <v>0.09553469967775818</v>
       </c>
       <c r="E18">
-        <v>2.13730660810846</v>
+        <v>0.01720323657525391</v>
       </c>
       <c r="F18">
-        <v>0.5645915646413115</v>
+        <v>2.17684042454249</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08816710532311589</v>
       </c>
       <c r="I18">
-        <v>0.06389471815723624</v>
+        <v>0.02114090971916482</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.480227795927505</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.349822774845904</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05823785549264926</v>
       </c>
       <c r="O18">
-        <v>1.39769338140232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1823638298442312</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.119232156696398</v>
+        <v>1.137002948324607</v>
       </c>
       <c r="C19">
-        <v>1.529748346110296</v>
+        <v>0.2503153615589042</v>
       </c>
       <c r="D19">
-        <v>0.0601966755275285</v>
+        <v>0.1036411554640537</v>
       </c>
       <c r="E19">
-        <v>2.116212480195927</v>
+        <v>0.01677682119679025</v>
       </c>
       <c r="F19">
-        <v>0.5596719771062908</v>
+        <v>2.582754303900728</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04173480545903629</v>
       </c>
       <c r="I19">
-        <v>0.06395550847286202</v>
+        <v>0.02040986580949511</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.800197924364227</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.311626866512626</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1102388517248087</v>
       </c>
       <c r="O19">
-        <v>1.385846060937496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2136794056582048</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.319549286031247</v>
+        <v>1.178064986100139</v>
       </c>
       <c r="C20">
-        <v>1.588270875506566</v>
+        <v>0.2369438810592612</v>
       </c>
       <c r="D20">
-        <v>0.06241628389942377</v>
+        <v>0.1291147894380842</v>
       </c>
       <c r="E20">
-        <v>2.21157049122202</v>
+        <v>0.03003092005526931</v>
       </c>
       <c r="F20">
-        <v>0.5819950625642534</v>
+        <v>3.367521012601429</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01115901777466233</v>
       </c>
       <c r="I20">
-        <v>0.06378695969642223</v>
+        <v>0.01647506320496372</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.417859673959896</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.325507558017506</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2290317756215785</v>
       </c>
       <c r="O20">
-        <v>1.439767924287452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.276669175747891</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.995941274445784</v>
+        <v>1.328353236059741</v>
       </c>
       <c r="C21">
-        <v>1.785978690030845</v>
+        <v>0.269217543571358</v>
       </c>
       <c r="D21">
-        <v>0.06990552563040353</v>
+        <v>0.1367870550522206</v>
       </c>
       <c r="E21">
-        <v>2.540354249011997</v>
+        <v>0.03604954294720564</v>
       </c>
       <c r="F21">
-        <v>0.6604651419629874</v>
+        <v>3.74991428810489</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.006893518811293964</v>
       </c>
       <c r="I21">
-        <v>0.06517680128665759</v>
+        <v>0.01113130177806188</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.675328346097857</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.495543974441915</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2685070286304381</v>
       </c>
       <c r="O21">
-        <v>1.632360204326687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3160666349634909</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.441013048128411</v>
+        <v>1.428097819591727</v>
       </c>
       <c r="C22">
-        <v>1.916165979820562</v>
+        <v>0.2909901235384496</v>
       </c>
       <c r="D22">
-        <v>0.07482945308093747</v>
+        <v>0.1409629351515136</v>
       </c>
       <c r="E22">
-        <v>2.762589365951129</v>
+        <v>0.03922233986293655</v>
       </c>
       <c r="F22">
-        <v>0.7146456245239534</v>
+        <v>3.983158989909043</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004825741394447247</v>
       </c>
       <c r="I22">
-        <v>0.06769601232102573</v>
+        <v>0.008047043312275015</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.829678481980437</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.608698181062749</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2879842040222371</v>
       </c>
       <c r="O22">
-        <v>1.767765802187569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3393036750262297</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.203159665616056</v>
+        <v>1.375591343176382</v>
       </c>
       <c r="C23">
-        <v>1.846581946035485</v>
+        <v>0.2783237829413849</v>
       </c>
       <c r="D23">
-        <v>0.0721983909784214</v>
+        <v>0.1394918193516936</v>
       </c>
       <c r="E23">
-        <v>2.643229122572066</v>
+        <v>0.03761744602785377</v>
       </c>
       <c r="F23">
-        <v>0.6854423583057354</v>
+        <v>3.875662352500058</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005860148630611461</v>
       </c>
       <c r="I23">
-        <v>0.06619368425963756</v>
+        <v>0.009254371960521368</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.761737472208253</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.5473751075167</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2774559593427739</v>
       </c>
       <c r="O23">
-        <v>1.694555221844467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3269422248892155</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.30853743561164</v>
+        <v>1.176582585627671</v>
       </c>
       <c r="C24">
-        <v>1.585053437871636</v>
+        <v>0.2332356782478371</v>
       </c>
       <c r="D24">
-        <v>0.06229428796034142</v>
+        <v>0.1325048932488997</v>
       </c>
       <c r="E24">
-        <v>2.206304900711544</v>
+        <v>0.03156600572624235</v>
       </c>
       <c r="F24">
-        <v>0.5807568885107273</v>
+        <v>3.442985134925465</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01082266013377207</v>
       </c>
       <c r="I24">
-        <v>0.0637892245366487</v>
+        <v>0.01577538945038093</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.481300850153488</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.318762982514272</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2380795239034086</v>
       </c>
       <c r="O24">
-        <v>1.436766276362476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2802813652399863</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.353285421662235</v>
+        <v>0.9638572202376849</v>
       </c>
       <c r="C25">
-        <v>1.306085055941935</v>
+        <v>0.1868410172007202</v>
       </c>
       <c r="D25">
-        <v>0.05170172861718214</v>
+        <v>0.1245843639923194</v>
       </c>
       <c r="E25">
-        <v>1.759824040063975</v>
+        <v>0.02536010330150162</v>
       </c>
       <c r="F25">
-        <v>0.4783296799336227</v>
+        <v>2.980574867603224</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01814129567838163</v>
       </c>
       <c r="I25">
-        <v>0.06715835745996124</v>
+        <v>0.02547330663619718</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.179654406996121</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.076176967156385</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1961122901811621</v>
       </c>
       <c r="O25">
-        <v>1.193275158560709</v>
+        <v>0.2303532540333002</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8101282200891546</v>
+        <v>0.7809828100690765</v>
       </c>
       <c r="C2">
-        <v>0.151817409099678</v>
+        <v>0.1986374066698033</v>
       </c>
       <c r="D2">
-        <v>0.120244092412964</v>
+        <v>0.08472066616922325</v>
       </c>
       <c r="E2">
-        <v>0.02120841544272878</v>
+        <v>0.01885121217183539</v>
       </c>
       <c r="F2">
-        <v>2.683407408542394</v>
+        <v>1.868974029016684</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02492545129320223</v>
+        <v>0.01955652848761646</v>
       </c>
       <c r="I2">
-        <v>0.03360310961498802</v>
+        <v>0.02444098126729877</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.992206218003105</v>
+        <v>1.295696338398898</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5009199298080915</v>
       </c>
       <c r="M2">
-        <v>0.8980597027594399</v>
+        <v>0.4684202046399619</v>
       </c>
       <c r="N2">
-        <v>0.1652165364773808</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1939323245153055</v>
+        <v>0.9509572335443579</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1810139277258855</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1926442930025232</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7053731932547578</v>
+        <v>0.6802446621687466</v>
       </c>
       <c r="C3">
-        <v>0.1301894143660434</v>
+        <v>0.1696858942699606</v>
       </c>
       <c r="D3">
-        <v>0.1160263606578127</v>
+        <v>0.08346896991998065</v>
       </c>
       <c r="E3">
-        <v>0.0183538704436792</v>
+        <v>0.01657369676522968</v>
       </c>
       <c r="F3">
-        <v>2.458947566298534</v>
+        <v>1.748675147083105</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03042686080099899</v>
+        <v>0.02395143177477355</v>
       </c>
       <c r="I3">
-        <v>0.0407873347602461</v>
+        <v>0.02973036754119862</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.844593813104211</v>
+        <v>1.233001617729002</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4865647593054518</v>
       </c>
       <c r="M3">
-        <v>0.7797400015601283</v>
+        <v>0.4377321905543639</v>
       </c>
       <c r="N3">
-        <v>0.1445657282055137</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1692717063205649</v>
+        <v>0.8250714417517599</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1594065271770475</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1681714309160505</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.641185437729888</v>
+        <v>0.6183685132047287</v>
       </c>
       <c r="C4">
-        <v>0.1172578231718262</v>
+        <v>0.1523444012594268</v>
       </c>
       <c r="D4">
-        <v>0.1132942064504476</v>
+        <v>0.08262483473224957</v>
       </c>
       <c r="E4">
-        <v>0.01663051748659505</v>
+        <v>0.0151926844106498</v>
       </c>
       <c r="F4">
-        <v>2.320565960750201</v>
+        <v>1.674241780255855</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03420094272130791</v>
+        <v>0.02697382459141084</v>
       </c>
       <c r="I4">
-        <v>0.04573984541243359</v>
+        <v>0.03340157673066946</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.753016916449297</v>
+        <v>1.193674682191613</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4770318496407171</v>
       </c>
       <c r="M4">
-        <v>0.7076064873161272</v>
+        <v>0.4195412015128568</v>
       </c>
       <c r="N4">
-        <v>0.1319309868261058</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1541563499077263</v>
+        <v>0.7481766210910621</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1461694209460518</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1531563546853825</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6148777436896466</v>
+        <v>0.592995902107134</v>
       </c>
       <c r="C5">
-        <v>0.1123101370022397</v>
+        <v>0.1456177145725945</v>
       </c>
       <c r="D5">
-        <v>0.1119518093502236</v>
+        <v>0.08220204159446531</v>
       </c>
       <c r="E5">
-        <v>0.01591228949666945</v>
+        <v>0.01461742926921783</v>
       </c>
       <c r="F5">
-        <v>2.259758579113324</v>
+        <v>1.640901259884117</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03584963247839745</v>
+        <v>0.02829521486799003</v>
       </c>
       <c r="I5">
-        <v>0.04800733878944863</v>
+        <v>0.03512360843029061</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.711849019169435</v>
+        <v>1.175164463735008</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4720359244227339</v>
       </c>
       <c r="M5">
-        <v>0.6785441181365996</v>
+        <v>0.4115231614907415</v>
       </c>
       <c r="N5">
-        <v>0.1268208740095389</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1479903946289198</v>
+        <v>0.717110312251009</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1408035939563987</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1470298125796781</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6102963915394355</v>
+        <v>0.5886036428773309</v>
       </c>
       <c r="C6">
-        <v>0.1117912903018095</v>
+        <v>0.1448007332527084</v>
       </c>
       <c r="D6">
-        <v>0.1114915451998222</v>
+        <v>0.08205859496655599</v>
       </c>
       <c r="E6">
-        <v>0.01576659463204599</v>
+        <v>0.01450285305187915</v>
       </c>
       <c r="F6">
-        <v>2.244451065301206</v>
+        <v>1.6318689130525</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03614716501993032</v>
+        <v>0.0285329841621289</v>
       </c>
       <c r="I6">
-        <v>0.04854324660535614</v>
+        <v>0.03557492440024479</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.700595528019392</v>
+        <v>1.169304099634921</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4700611084449022</v>
       </c>
       <c r="M6">
-        <v>0.6739935055874042</v>
+        <v>0.409264498182516</v>
       </c>
       <c r="N6">
-        <v>0.1260096440283718</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.146953460861905</v>
+        <v>0.7121797195488853</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1399411590903128</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1460015793772023</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6402406357260304</v>
+        <v>0.6175362716716961</v>
       </c>
       <c r="C7">
-        <v>0.1180057517291715</v>
+        <v>0.1530591727808428</v>
       </c>
       <c r="D7">
-        <v>0.1126328331071385</v>
+        <v>0.08242680225778809</v>
       </c>
       <c r="E7">
-        <v>0.01654715844913834</v>
+        <v>0.01513221546533394</v>
       </c>
       <c r="F7">
-        <v>2.305517133895336</v>
+        <v>1.66428506328532</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03427017586612457</v>
+        <v>0.02702706903775765</v>
       </c>
       <c r="I7">
-        <v>0.04616302755089574</v>
+        <v>0.03383673915083918</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.74041438966384</v>
+        <v>1.185868164658018</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4739101992436119</v>
       </c>
       <c r="M7">
-        <v>0.7079461850255768</v>
+        <v>0.4168432306811525</v>
       </c>
       <c r="N7">
-        <v>0.1319627855835606</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1540364172315556</v>
+        <v>0.748365530728023</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1461746835940332</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.153043476321514</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7731730207079295</v>
+        <v>0.7455861065346028</v>
       </c>
       <c r="C8">
-        <v>0.1453656255593785</v>
+        <v>0.1896370010910289</v>
       </c>
       <c r="D8">
-        <v>0.1179690509650477</v>
+        <v>0.08407257543710145</v>
       </c>
       <c r="E8">
-        <v>0.02011718882005287</v>
+        <v>0.01799100480599058</v>
       </c>
       <c r="F8">
-        <v>2.587205408519111</v>
+        <v>1.815105394634415</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.02679146170619684</v>
+        <v>0.0210427381679712</v>
       </c>
       <c r="I8">
-        <v>0.03643032859793216</v>
+        <v>0.02666631551804866</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.925486471494281</v>
+        <v>1.264346959742618</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4922620249261271</v>
       </c>
       <c r="M8">
-        <v>0.8581048041491215</v>
+        <v>0.4541599135841494</v>
       </c>
       <c r="N8">
-        <v>0.1582187102534789</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1853718387887113</v>
+        <v>0.9082599476101052</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1736604416296572</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1841609974311496</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.036442837486248</v>
+        <v>0.9977319420649167</v>
       </c>
       <c r="C9">
-        <v>0.2007270935724108</v>
+        <v>0.2637943245815677</v>
       </c>
       <c r="D9">
-        <v>0.1284485951489387</v>
+        <v>0.08700489777313214</v>
       </c>
       <c r="E9">
-        <v>0.02755631444492757</v>
+        <v>0.02388473508667932</v>
       </c>
       <c r="F9">
-        <v>3.161696096480313</v>
+        <v>2.123783958006371</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01537781867027355</v>
+        <v>0.01196580417571624</v>
       </c>
       <c r="I9">
-        <v>0.02128997265464516</v>
+        <v>0.01551815250977473</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.303055024680091</v>
+        <v>1.425149775893658</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5277085575016329</v>
       </c>
       <c r="M9">
-        <v>1.156162978377893</v>
+        <v>0.5374754636779926</v>
       </c>
       <c r="N9">
-        <v>0.2100133897326657</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2472025307469785</v>
+        <v>1.224572851895488</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2277613054534697</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2454133984223645</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.231389164724675</v>
+        <v>1.184289012970055</v>
       </c>
       <c r="C10">
-        <v>0.2464687019594152</v>
+        <v>0.3231013091694024</v>
       </c>
       <c r="D10">
-        <v>0.1320699206525582</v>
+        <v>0.08817468794097261</v>
       </c>
       <c r="E10">
-        <v>0.03138335239852097</v>
+        <v>0.02692734930057483</v>
       </c>
       <c r="F10">
-        <v>3.505194538240602</v>
+        <v>2.302617816537051</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.009765630098524269</v>
+        <v>0.0075765894278228</v>
       </c>
       <c r="I10">
-        <v>0.01364886082081629</v>
+        <v>0.01005228636360656</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.512693472754805</v>
+        <v>1.504482731193661</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5378145684035545</v>
       </c>
       <c r="M10">
-        <v>1.38308127888908</v>
+        <v>0.5883416223235116</v>
       </c>
       <c r="N10">
-        <v>0.2361357821599057</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2876640701013216</v>
+        <v>1.463231687542901</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2548889310227622</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2854023897992732</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.321741134669821</v>
+        <v>1.277475891102256</v>
       </c>
       <c r="C11">
-        <v>0.2887486852072527</v>
+        <v>0.3647860544489561</v>
       </c>
       <c r="D11">
-        <v>0.1112384591097815</v>
+        <v>0.08696302853549476</v>
       </c>
       <c r="E11">
-        <v>0.02178700413651757</v>
+        <v>0.02042014712574503</v>
       </c>
       <c r="F11">
-        <v>3.04814967555069</v>
+        <v>2.019846693203206</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02825518313531461</v>
+        <v>0.02607529442591527</v>
       </c>
       <c r="I11">
-        <v>0.01283552099927032</v>
+        <v>0.009594198704072632</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>2.110226581144275</v>
+        <v>1.270236252970179</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4474218922478883</v>
       </c>
       <c r="M11">
-        <v>1.519180661438241</v>
+        <v>0.5047196148076765</v>
       </c>
       <c r="N11">
-        <v>0.1522174743673901</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2611626182344438</v>
+        <v>1.597262806620108</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1668626881147901</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2592004118678197</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.357991223627209</v>
+        <v>1.318015282489597</v>
       </c>
       <c r="C12">
-        <v>0.314667852663689</v>
+        <v>0.3864793429441988</v>
       </c>
       <c r="D12">
-        <v>0.1003412823921481</v>
+        <v>0.08980491738009633</v>
       </c>
       <c r="E12">
-        <v>0.01980303332647093</v>
+        <v>0.02075266444826651</v>
       </c>
       <c r="F12">
-        <v>2.640241228304745</v>
+        <v>1.772791012020036</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06743214627664429</v>
+        <v>0.06511435249407782</v>
       </c>
       <c r="I12">
-        <v>0.01283450280047127</v>
+        <v>0.009487288895884127</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.777128124898368</v>
+        <v>1.084621280913829</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3805087514455181</v>
       </c>
       <c r="M12">
-        <v>1.586278631833636</v>
+        <v>0.4332897164615943</v>
       </c>
       <c r="N12">
-        <v>0.09238467647630699</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2316423615917351</v>
+        <v>1.65991948529819</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1037521443049201</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2299980168294127</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.353351212294768</v>
+        <v>1.319161468087998</v>
       </c>
       <c r="C13">
-        <v>0.3304126509298158</v>
+        <v>0.3949328975235176</v>
       </c>
       <c r="D13">
-        <v>0.09532635159150082</v>
+        <v>0.09537410565311433</v>
       </c>
       <c r="E13">
-        <v>0.02331758804488526</v>
+        <v>0.02610473443748518</v>
       </c>
       <c r="F13">
-        <v>2.22539830350847</v>
+        <v>1.523955971578289</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1242839170564309</v>
+        <v>0.1216788140491047</v>
       </c>
       <c r="I13">
-        <v>0.01393773689493383</v>
+        <v>0.01016369865519451</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.460205202250663</v>
+        <v>0.913635473832592</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3221490829987701</v>
       </c>
       <c r="M13">
-        <v>1.604535547349172</v>
+        <v>0.3635950588172179</v>
       </c>
       <c r="N13">
-        <v>0.04803201977336968</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1982740526772204</v>
+        <v>1.67147231666911</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05653851615651462</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1969747617225934</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.331453027646063</v>
+        <v>1.301975372662753</v>
       </c>
       <c r="C14">
-        <v>0.3372051951191963</v>
+        <v>0.3951414121486039</v>
       </c>
       <c r="D14">
-        <v>0.09524064510980423</v>
+        <v>0.1009041184124158</v>
       </c>
       <c r="E14">
-        <v>0.02912000067794551</v>
+        <v>0.03288895131909619</v>
       </c>
       <c r="F14">
-        <v>1.934665536724808</v>
+        <v>1.349657527782796</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1746804967233686</v>
+        <v>0.1718012013648433</v>
       </c>
       <c r="I14">
-        <v>0.01536052994549131</v>
+        <v>0.01113985242501414</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.249013596740227</v>
+        <v>0.8016730628238165</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2850296998438679</v>
       </c>
       <c r="M14">
-        <v>1.595513341354689</v>
+        <v>0.3165848759020804</v>
       </c>
       <c r="N14">
-        <v>0.02648178341850382</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1736069322332199</v>
+        <v>1.656639929911165</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03323575044953486</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1725490785191113</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.31711226410485</v>
+        <v>1.289089741643863</v>
       </c>
       <c r="C15">
-        <v>0.3368953568756865</v>
+        <v>0.3926581984859183</v>
       </c>
       <c r="D15">
-        <v>0.09566078709309167</v>
+        <v>0.1023990812302742</v>
       </c>
       <c r="E15">
-        <v>0.03081614173001768</v>
+        <v>0.03476677776984083</v>
       </c>
       <c r="F15">
-        <v>1.85549922454021</v>
+        <v>1.302506880215574</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1876689961917748</v>
+        <v>0.1846730236672158</v>
       </c>
       <c r="I15">
-        <v>0.01614227932170031</v>
+        <v>0.01174518109694844</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.194438398573624</v>
+        <v>0.7735757826961134</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2760720637105969</v>
       </c>
       <c r="M15">
-        <v>1.58298042147274</v>
+        <v>0.3043087255959378</v>
       </c>
       <c r="N15">
-        <v>0.02242582582435482</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1666637622653688</v>
+        <v>1.6422131048854</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.02879401607906118</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1656728374800771</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.233398366557878</v>
+        <v>1.20768561695408</v>
       </c>
       <c r="C16">
-        <v>0.313587315909075</v>
+        <v>0.3649298432712555</v>
       </c>
       <c r="D16">
-        <v>0.09499004715314641</v>
+        <v>0.1000216582063302</v>
       </c>
       <c r="E16">
-        <v>0.02837861918149365</v>
+        <v>0.03211003373477972</v>
       </c>
       <c r="F16">
-        <v>1.794327238761042</v>
+        <v>1.273282151421526</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1773279780407506</v>
+        <v>0.1738174799363605</v>
       </c>
       <c r="I16">
-        <v>0.01930774033000837</v>
+        <v>0.0140751562294863</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>1.170707179444818</v>
+        <v>0.7712671273497378</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2789165128006452</v>
       </c>
       <c r="M16">
-        <v>1.480573667239582</v>
+        <v>0.2986557240845187</v>
       </c>
       <c r="N16">
-        <v>0.02192770740520089</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1571017039894933</v>
+        <v>1.53611466125605</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02844753789518251</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1561943588931349</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.180975007094929</v>
+        <v>1.154544411539092</v>
       </c>
       <c r="C17">
-        <v>0.2922271596025041</v>
+        <v>0.343774843412433</v>
       </c>
       <c r="D17">
-        <v>0.0939148250275359</v>
+        <v>0.09507654131914478</v>
       </c>
       <c r="E17">
-        <v>0.02283098414263485</v>
+        <v>0.0259516323006963</v>
       </c>
       <c r="F17">
-        <v>1.897091335354588</v>
+        <v>1.34158435049487</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1408626142619624</v>
+        <v>0.1370983773999654</v>
       </c>
       <c r="I17">
-        <v>0.02105355502799533</v>
+        <v>0.01541380126624858</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.259904184659661</v>
+        <v>0.827136292363825</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3009249484935808</v>
       </c>
       <c r="M17">
-        <v>1.407156994862305</v>
+        <v>0.3179050483550583</v>
       </c>
       <c r="N17">
-        <v>0.03122120136858797</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1625512340878608</v>
+        <v>1.462976335252534</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.03874650423421144</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1615923068387133</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.149873797753884</v>
+        <v>1.120100935472863</v>
       </c>
       <c r="C18">
-        <v>0.2696665722452849</v>
+        <v>0.3250859099268837</v>
       </c>
       <c r="D18">
-        <v>0.09553469967775818</v>
+        <v>0.08903008639456544</v>
       </c>
       <c r="E18">
-        <v>0.01720323657525391</v>
+        <v>0.01909760264577542</v>
       </c>
       <c r="F18">
-        <v>2.17684042454249</v>
+        <v>1.515942355806146</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08816710532311589</v>
+        <v>0.08442365511155003</v>
       </c>
       <c r="I18">
-        <v>0.02114090971916482</v>
+        <v>0.01545216727062293</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.480227795927505</v>
+        <v>0.9530227334085737</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3474090518645525</v>
       </c>
       <c r="M18">
-        <v>1.349822774845904</v>
+        <v>0.3653027177613382</v>
       </c>
       <c r="N18">
-        <v>0.05823785549264926</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1823638298442312</v>
+        <v>1.409348819862515</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06784066387349696</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1812204550255885</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.137002948324607</v>
+        <v>1.102334510147699</v>
       </c>
       <c r="C19">
-        <v>0.2503153615589042</v>
+        <v>0.3116319975079023</v>
       </c>
       <c r="D19">
-        <v>0.1036411554640537</v>
+        <v>0.08550006043576275</v>
       </c>
       <c r="E19">
-        <v>0.01677682119679025</v>
+        <v>0.01670264130929433</v>
       </c>
       <c r="F19">
-        <v>2.582754303900728</v>
+        <v>1.762267950966404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04173480545903629</v>
+        <v>0.03828349700855682</v>
       </c>
       <c r="I19">
-        <v>0.02040986580949511</v>
+        <v>0.01510145354713721</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.800197924364227</v>
+        <v>1.130182000502749</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4117663980972779</v>
       </c>
       <c r="M19">
-        <v>1.311626866512626</v>
+        <v>0.4333525375971519</v>
       </c>
       <c r="N19">
-        <v>0.1102388517248087</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2136794056582048</v>
+        <v>1.376859855169329</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1229288238294401</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.212241853958794</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.178064986100139</v>
+        <v>1.133646133188705</v>
       </c>
       <c r="C20">
-        <v>0.2369438810592612</v>
+        <v>0.309961057018171</v>
       </c>
       <c r="D20">
-        <v>0.1291147894380842</v>
+        <v>0.08746716147425904</v>
       </c>
       <c r="E20">
-        <v>0.03003092005526931</v>
+        <v>0.02587937879652635</v>
       </c>
       <c r="F20">
-        <v>3.367521012601429</v>
+        <v>2.225144512593516</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.01115901777466233</v>
+        <v>0.008653507602152555</v>
       </c>
       <c r="I20">
-        <v>0.01647506320496372</v>
+        <v>0.0124681814881491</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.417859673959896</v>
+        <v>1.459956838204931</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.526721377963888</v>
       </c>
       <c r="M20">
-        <v>1.325507558017506</v>
+        <v>0.5655108249178866</v>
       </c>
       <c r="N20">
-        <v>0.2290317756215785</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.276669175747891</v>
+        <v>1.402258461589525</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.247446019098021</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2745663231640876</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.328353236059741</v>
+        <v>1.275902309443694</v>
       </c>
       <c r="C21">
-        <v>0.269217543571358</v>
+        <v>0.3539339415733025</v>
       </c>
       <c r="D21">
-        <v>0.1367870550522206</v>
+        <v>0.08921104570950655</v>
       </c>
       <c r="E21">
-        <v>0.03604954294720564</v>
+        <v>0.03058852370752074</v>
       </c>
       <c r="F21">
-        <v>3.74991428810489</v>
+        <v>2.433040412162995</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006893518811293964</v>
+        <v>0.005276554033163516</v>
       </c>
       <c r="I21">
-        <v>0.01113130177806188</v>
+        <v>0.008640688545874298</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.675328346097857</v>
+        <v>1.573408520347684</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5528330511460027</v>
       </c>
       <c r="M21">
-        <v>1.495543974441915</v>
+        <v>0.6264133700906811</v>
       </c>
       <c r="N21">
-        <v>0.2685070286304381</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3160666349634909</v>
+        <v>1.582264924477073</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2885129951336154</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3134573923956694</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.428097819591727</v>
+        <v>1.37035174121462</v>
       </c>
       <c r="C22">
-        <v>0.2909901235384496</v>
+        <v>0.3830635926960326</v>
       </c>
       <c r="D22">
-        <v>0.1409629351515136</v>
+        <v>0.0901684578243942</v>
       </c>
       <c r="E22">
-        <v>0.03922233986293655</v>
+        <v>0.03306075414336185</v>
       </c>
       <c r="F22">
-        <v>3.983158989909043</v>
+        <v>2.559690479147449</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.004825741394447247</v>
+        <v>0.003664584382425451</v>
       </c>
       <c r="I22">
-        <v>0.008047043312275015</v>
+        <v>0.006293214842557404</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.829678481980437</v>
+        <v>1.64037862051218</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5667948062108294</v>
       </c>
       <c r="M22">
-        <v>1.608698181062749</v>
+        <v>0.6644770037897416</v>
       </c>
       <c r="N22">
-        <v>0.2879842040222371</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3393036750262297</v>
+        <v>1.70144704490221</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.308735229006146</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3363517417983388</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.375591343176382</v>
+        <v>1.320546553945434</v>
       </c>
       <c r="C23">
-        <v>0.2783237829413849</v>
+        <v>0.3664510427311711</v>
       </c>
       <c r="D23">
-        <v>0.1394918193516936</v>
+        <v>0.08980893910316112</v>
       </c>
       <c r="E23">
-        <v>0.03761744602785377</v>
+        <v>0.03180098760538819</v>
       </c>
       <c r="F23">
-        <v>3.875662352500058</v>
+        <v>2.502998933393854</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.005860148630611461</v>
+        <v>0.004471541127084699</v>
       </c>
       <c r="I23">
-        <v>0.009254371960521368</v>
+        <v>0.007073396992909764</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.761737472208253</v>
+        <v>1.613235316077265</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5623897453466</v>
       </c>
       <c r="M23">
-        <v>1.5473751075167</v>
+        <v>0.6475049754869246</v>
       </c>
       <c r="N23">
-        <v>0.2774559593427739</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3269422248892155</v>
+        <v>1.637054038984417</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2978348874143109</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3241662576126103</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.176582585627671</v>
+        <v>1.131490038584445</v>
       </c>
       <c r="C24">
-        <v>0.2332356782478371</v>
+        <v>0.3066332580173992</v>
       </c>
       <c r="D24">
-        <v>0.1325048932488997</v>
+        <v>0.0880965071216222</v>
       </c>
       <c r="E24">
-        <v>0.03156600572624235</v>
+        <v>0.02705567144715726</v>
       </c>
       <c r="F24">
-        <v>3.442985134925465</v>
+        <v>2.27152917175134</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01082266013377207</v>
+        <v>0.008364684317072435</v>
       </c>
       <c r="I24">
-        <v>0.01577538945038093</v>
+        <v>0.01172740051445142</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.481300850153488</v>
+        <v>1.496109667276656</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5399402824395239</v>
       </c>
       <c r="M24">
-        <v>1.318762982514272</v>
+        <v>0.5793182597697708</v>
       </c>
       <c r="N24">
-        <v>0.2380795239034086</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2802813652399863</v>
+        <v>1.396170758528797</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2569422955008491</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2781246562689006</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9638572202376849</v>
+        <v>0.9285254163937395</v>
       </c>
       <c r="C25">
-        <v>0.1868410172007202</v>
+        <v>0.2447455968074053</v>
       </c>
       <c r="D25">
-        <v>0.1245843639923194</v>
+        <v>0.08600093307494117</v>
       </c>
       <c r="E25">
-        <v>0.02536010330150162</v>
+        <v>0.02216377264801039</v>
       </c>
       <c r="F25">
-        <v>2.980574867603224</v>
+        <v>2.02369639464095</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01814129567838163</v>
+        <v>0.01415272118496774</v>
       </c>
       <c r="I25">
-        <v>0.02547330663619718</v>
+        <v>0.01878957948549242</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>2.179654406996121</v>
+        <v>1.368976515552774</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5137587260671594</v>
       </c>
       <c r="M25">
-        <v>1.076176967156385</v>
+        <v>0.5093415531957532</v>
       </c>
       <c r="N25">
-        <v>0.1961122901811621</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2303532540333002</v>
+        <v>1.139571723071725</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.213217928806273</v>
       </c>
       <c r="Q25">
+        <v>0.2287516890444827</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
